--- a/config_3.2/shoping_config_xiaomi.xlsx
+++ b/config_3.2/shoping_config_xiaomi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -8797,18 +8797,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{type="permission_class",class_value = "fclb_free_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v1v7_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v8v12_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>{type="permission_class",class_value = "golden_egg_1" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -9191,6 +9179,18 @@
   </si>
   <si>
     <t>幸运金币6元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_free_002" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v1v7_002" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v8v12_002" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10095,7 +10095,7 @@
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2142</v>
+        <v>2139</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>15</v>
@@ -12070,7 +12070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN579"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -15868,7 +15868,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>2172</v>
+        <v>2169</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>937</v>
@@ -47213,13 +47213,13 @@
         <v>0</v>
       </c>
       <c r="G549" s="5" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="I549" s="5" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
       <c r="J549" s="5" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
       <c r="L549" s="5">
         <v>-31</v>
@@ -47237,10 +47237,10 @@
         <v>49800</v>
       </c>
       <c r="Q549" s="5" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="R549" s="10" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="W549" s="5" t="s">
         <v>1695</v>
@@ -47281,13 +47281,13 @@
         <v>0</v>
       </c>
       <c r="G550" s="5" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="I550" s="5" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="J550" s="5" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="L550" s="5">
         <v>-31</v>
@@ -47305,10 +47305,10 @@
         <v>19800</v>
       </c>
       <c r="Q550" s="5" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="R550" s="10" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="W550" s="5" t="s">
         <v>1695</v>
@@ -47349,13 +47349,13 @@
         <v>0</v>
       </c>
       <c r="G551" s="5" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="I551" s="5" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="J551" s="5" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
       <c r="L551" s="5">
         <v>-31</v>
@@ -47373,10 +47373,10 @@
         <v>9800</v>
       </c>
       <c r="Q551" s="5" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="R551" s="10" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="W551" s="5" t="s">
         <v>1695</v>
@@ -47417,13 +47417,13 @@
         <v>0</v>
       </c>
       <c r="G552" s="5" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="I552" s="5" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="J552" s="5" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
       <c r="L552" s="5">
         <v>-31</v>
@@ -47441,10 +47441,10 @@
         <v>4800</v>
       </c>
       <c r="Q552" s="5" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="R552" s="10" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="W552" s="5" t="s">
         <v>1695</v>
@@ -47485,13 +47485,13 @@
         <v>0</v>
       </c>
       <c r="G553" s="5" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
       <c r="I553" s="5" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
       <c r="J553" s="5" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
       <c r="L553" s="5">
         <v>-31</v>
@@ -47509,13 +47509,13 @@
         <v>49800</v>
       </c>
       <c r="Q553" s="5" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="R553" s="10" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
       <c r="W553" s="5" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="X553" s="5">
         <v>9999999</v>
@@ -47553,13 +47553,13 @@
         <v>0</v>
       </c>
       <c r="G554" s="5" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="I554" s="5" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
       <c r="J554" s="5" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
       <c r="L554" s="5">
         <v>-31</v>
@@ -47577,13 +47577,13 @@
         <v>19800</v>
       </c>
       <c r="Q554" s="5" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
       <c r="R554" s="10" t="s">
-        <v>2098</v>
+        <v>2095</v>
       </c>
       <c r="W554" s="5" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="X554" s="5">
         <v>9999999</v>
@@ -47621,13 +47621,13 @@
         <v>0</v>
       </c>
       <c r="G555" s="5" t="s">
-        <v>2099</v>
+        <v>2096</v>
       </c>
       <c r="I555" s="5" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="J555" s="5" t="s">
-        <v>2100</v>
+        <v>2097</v>
       </c>
       <c r="L555" s="5">
         <v>-31</v>
@@ -47645,13 +47645,13 @@
         <v>9800</v>
       </c>
       <c r="Q555" s="5" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="R555" s="10" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
       <c r="W555" s="5" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="X555" s="5">
         <v>9999999</v>
@@ -47689,13 +47689,13 @@
         <v>0</v>
       </c>
       <c r="G556" s="5" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
       <c r="I556" s="5" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="J556" s="5" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="L556" s="5">
         <v>-31</v>
@@ -47713,13 +47713,13 @@
         <v>4800</v>
       </c>
       <c r="Q556" s="5" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="R556" s="10" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
       <c r="W556" s="5" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="X556" s="5">
         <v>9999999</v>
@@ -47757,13 +47757,13 @@
         <v>0</v>
       </c>
       <c r="G557" s="5" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="I557" s="5" t="s">
+        <v>2107</v>
+      </c>
+      <c r="J557" s="5" t="s">
         <v>2110</v>
-      </c>
-      <c r="J557" s="5" t="s">
-        <v>2113</v>
       </c>
       <c r="L557" s="5">
         <v>-25</v>
@@ -47784,7 +47784,7 @@
         <v>77</v>
       </c>
       <c r="R557" s="65" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="W557" s="5" t="s">
         <v>525</v>
@@ -47826,10 +47826,10 @@
         <v>518</v>
       </c>
       <c r="I558" s="5" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="J558" s="5" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="L558" s="5">
         <v>-25</v>
@@ -47892,10 +47892,10 @@
         <v>266</v>
       </c>
       <c r="I559" s="5" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="J559" s="5" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="L559" s="5">
         <v>-25</v>
@@ -47916,7 +47916,7 @@
         <v>77</v>
       </c>
       <c r="R559" s="65" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
       <c r="W559" s="5" t="s">
         <v>525</v>
@@ -47955,13 +47955,13 @@
         <v>0</v>
       </c>
       <c r="G560" s="5" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="I560" s="5" t="s">
+        <v>2107</v>
+      </c>
+      <c r="J560" s="5" t="s">
         <v>2110</v>
-      </c>
-      <c r="J560" s="5" t="s">
-        <v>2113</v>
       </c>
       <c r="L560" s="5">
         <v>-25</v>
@@ -48024,10 +48024,10 @@
         <v>519</v>
       </c>
       <c r="I561" s="5" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="J561" s="5" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="L561" s="5">
         <v>-25</v>
@@ -48090,10 +48090,10 @@
         <v>66</v>
       </c>
       <c r="I562" s="5" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="J562" s="5" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
       <c r="L562" s="5">
         <v>-25</v>
@@ -48114,7 +48114,7 @@
         <v>77</v>
       </c>
       <c r="R562" s="65" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
       <c r="W562" s="5" t="s">
         <v>525</v>
@@ -48153,13 +48153,13 @@
         <v>0</v>
       </c>
       <c r="G563" s="5" t="s">
+        <v>2105</v>
+      </c>
+      <c r="I563" s="5" t="s">
         <v>2108</v>
       </c>
-      <c r="I563" s="5" t="s">
-        <v>2111</v>
-      </c>
       <c r="J563" s="5" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="L563" s="5">
         <v>-25</v>
@@ -48222,10 +48222,10 @@
         <v>266</v>
       </c>
       <c r="I564" s="5" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="J564" s="5" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="L564" s="5">
         <v>-25</v>
@@ -48246,7 +48246,7 @@
         <v>77</v>
       </c>
       <c r="R564" s="65" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
       <c r="W564" s="5" t="s">
         <v>525</v>
@@ -48288,10 +48288,10 @@
         <v>70</v>
       </c>
       <c r="I565" s="5" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="J565" s="5" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
       <c r="L565" s="5">
         <v>-25</v>
@@ -48312,7 +48312,7 @@
         <v>77</v>
       </c>
       <c r="R565" s="65" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
       <c r="W565" s="5" t="s">
         <v>525</v>
@@ -48354,7 +48354,7 @@
         <v>122</v>
       </c>
       <c r="I566" s="22" t="s">
-        <v>2125</v>
+        <v>2122</v>
       </c>
       <c r="J566" s="22" t="s">
         <v>1932</v>
@@ -48375,10 +48375,10 @@
         <v>49800</v>
       </c>
       <c r="Q566" s="22" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
       <c r="R566" s="66" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
       <c r="W566" s="22" t="s">
         <v>1354</v>
@@ -48422,10 +48422,10 @@
         <v>122</v>
       </c>
       <c r="I567" s="22" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="J567" s="22" t="s">
-        <v>2128</v>
+        <v>2125</v>
       </c>
       <c r="L567" s="22">
         <v>-33</v>
@@ -48443,7 +48443,7 @@
         <v>19800</v>
       </c>
       <c r="Q567" s="22" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
       <c r="R567" s="66" t="s">
         <v>1938</v>
@@ -48490,7 +48490,7 @@
         <v>122</v>
       </c>
       <c r="I568" s="22" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="J568" s="22" t="s">
         <v>1939</v>
@@ -48511,7 +48511,7 @@
         <v>9800</v>
       </c>
       <c r="Q568" s="22" t="s">
-        <v>2129</v>
+        <v>2126</v>
       </c>
       <c r="R568" s="66" t="s">
         <v>1941</v>
@@ -48558,10 +48558,10 @@
         <v>122</v>
       </c>
       <c r="I569" s="22" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="J569" s="22" t="s">
-        <v>2130</v>
+        <v>2127</v>
       </c>
       <c r="L569" s="22">
         <v>-33</v>
@@ -48579,7 +48579,7 @@
         <v>4800</v>
       </c>
       <c r="Q569" s="22" t="s">
-        <v>2131</v>
+        <v>2128</v>
       </c>
       <c r="R569" s="66" t="s">
         <v>1944</v>
@@ -48626,7 +48626,7 @@
         <v>122</v>
       </c>
       <c r="I570" s="22" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="J570" s="22" t="s">
         <v>1946</v>
@@ -48647,13 +48647,13 @@
         <v>49800</v>
       </c>
       <c r="Q570" s="22" t="s">
-        <v>2133</v>
+        <v>2130</v>
       </c>
       <c r="R570" s="66" t="s">
         <v>1948</v>
       </c>
       <c r="W570" s="22" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
       <c r="X570" s="22">
         <v>99999999</v>
@@ -48694,7 +48694,7 @@
         <v>122</v>
       </c>
       <c r="I571" s="22" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="J571" s="22" t="s">
         <v>1949</v>
@@ -48715,10 +48715,10 @@
         <v>19800</v>
       </c>
       <c r="Q571" s="22" t="s">
-        <v>2133</v>
+        <v>2130</v>
       </c>
       <c r="R571" s="66" t="s">
-        <v>2135</v>
+        <v>2132</v>
       </c>
       <c r="W571" s="22" t="s">
         <v>1354</v>
@@ -48762,7 +48762,7 @@
         <v>122</v>
       </c>
       <c r="I572" s="22" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="J572" s="22" t="s">
         <v>1952</v>
@@ -48783,13 +48783,13 @@
         <v>9800</v>
       </c>
       <c r="Q572" s="22" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="R572" s="66" t="s">
         <v>1954</v>
       </c>
       <c r="W572" s="22" t="s">
-        <v>2137</v>
+        <v>2134</v>
       </c>
       <c r="X572" s="22">
         <v>99999999</v>
@@ -48830,10 +48830,10 @@
         <v>122</v>
       </c>
       <c r="I573" s="22" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="J573" s="22" t="s">
-        <v>2138</v>
+        <v>2135</v>
       </c>
       <c r="L573" s="22">
         <v>-33</v>
@@ -48845,19 +48845,19 @@
         <v>0</v>
       </c>
       <c r="O573" s="22" t="s">
-        <v>2139</v>
+        <v>2136</v>
       </c>
       <c r="P573" s="22">
         <v>4800</v>
       </c>
       <c r="Q573" s="22" t="s">
-        <v>2140</v>
+        <v>2137</v>
       </c>
       <c r="R573" s="66" t="s">
-        <v>2141</v>
+        <v>2138</v>
       </c>
       <c r="W573" s="22" t="s">
-        <v>2137</v>
+        <v>2134</v>
       </c>
       <c r="X573" s="22">
         <v>99999999</v>
@@ -48898,11 +48898,11 @@
         <v>1</v>
       </c>
       <c r="G574" s="22" t="s">
-        <v>2143</v>
+        <v>2140</v>
       </c>
       <c r="H574" s="22"/>
       <c r="I574" s="22" t="s">
-        <v>2144</v>
+        <v>2141</v>
       </c>
       <c r="J574" s="22"/>
       <c r="K574" s="22"/>
@@ -48916,23 +48916,23 @@
         <v>0</v>
       </c>
       <c r="O574" s="22" t="s">
-        <v>2145</v>
+        <v>2142</v>
       </c>
       <c r="P574" s="22">
         <v>4500</v>
       </c>
       <c r="Q574" s="22" t="s">
-        <v>2146</v>
+        <v>2143</v>
       </c>
       <c r="R574" s="67" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="S574" s="22"/>
       <c r="T574" s="22"/>
       <c r="U574" s="22"/>
       <c r="V574" s="22"/>
       <c r="W574" s="22" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="X574" s="22">
         <v>99999999</v>
@@ -48970,11 +48970,11 @@
         <v>1</v>
       </c>
       <c r="G575" s="22" t="s">
-        <v>2150</v>
+        <v>2147</v>
       </c>
       <c r="H575" s="22"/>
       <c r="I575" s="22" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
       <c r="J575" s="22"/>
       <c r="K575" s="22"/>
@@ -48988,23 +48988,23 @@
         <v>0</v>
       </c>
       <c r="O575" s="22" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
       <c r="P575" s="22">
         <v>8800</v>
       </c>
       <c r="Q575" s="22" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
       <c r="R575" s="67" t="s">
-        <v>2154</v>
+        <v>2151</v>
       </c>
       <c r="S575" s="22"/>
       <c r="T575" s="22"/>
       <c r="U575" s="22"/>
       <c r="V575" s="22"/>
       <c r="W575" s="22" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
       <c r="X575" s="22">
         <v>99999999</v>
@@ -49042,11 +49042,11 @@
         <v>1</v>
       </c>
       <c r="G576" s="22" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
       <c r="H576" s="22"/>
       <c r="I576" s="22" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="J576" s="22"/>
       <c r="K576" s="22"/>
@@ -49066,17 +49066,17 @@
         <v>17800</v>
       </c>
       <c r="Q576" s="22" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="R576" s="67" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
       <c r="S576" s="22"/>
       <c r="T576" s="22"/>
       <c r="U576" s="22"/>
       <c r="V576" s="22"/>
       <c r="W576" s="22" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
       <c r="X576" s="22">
         <v>99999999</v>
@@ -49114,11 +49114,11 @@
         <v>1</v>
       </c>
       <c r="G577" s="22" t="s">
-        <v>2160</v>
+        <v>2157</v>
       </c>
       <c r="H577" s="22"/>
       <c r="I577" s="22" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
       <c r="J577" s="22"/>
       <c r="K577" s="22"/>
@@ -49138,10 +49138,10 @@
         <v>44800</v>
       </c>
       <c r="Q577" s="22" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
       <c r="R577" s="67" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
       <c r="S577" s="22"/>
       <c r="T577" s="22"/>
@@ -49186,11 +49186,11 @@
         <v>1</v>
       </c>
       <c r="G578" s="22" t="s">
-        <v>2164</v>
+        <v>2161</v>
       </c>
       <c r="H578" s="22"/>
       <c r="I578" s="22" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
       <c r="J578" s="22"/>
       <c r="K578" s="22"/>
@@ -49210,10 +49210,10 @@
         <v>89800</v>
       </c>
       <c r="Q578" s="22" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
       <c r="R578" s="67" t="s">
-        <v>2167</v>
+        <v>2164</v>
       </c>
       <c r="S578" s="22"/>
       <c r="T578" s="22"/>
@@ -49258,11 +49258,11 @@
         <v>1</v>
       </c>
       <c r="G579" s="22" t="s">
-        <v>2168</v>
+        <v>2165</v>
       </c>
       <c r="H579" s="22"/>
       <c r="I579" s="22" t="s">
-        <v>2169</v>
+        <v>2166</v>
       </c>
       <c r="J579" s="22"/>
       <c r="K579" s="22"/>
@@ -49282,10 +49282,10 @@
         <v>229800</v>
       </c>
       <c r="Q579" s="22" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
       <c r="R579" s="67" t="s">
-        <v>2171</v>
+        <v>2168</v>
       </c>
       <c r="S579" s="22"/>
       <c r="T579" s="22"/>
@@ -49328,8 +49328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -50330,7 +50330,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="57" t="s">
-        <v>2069</v>
+        <v>2170</v>
       </c>
       <c r="C71" s="58">
         <v>1</v>
@@ -50344,7 +50344,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="57" t="s">
-        <v>2070</v>
+        <v>2171</v>
       </c>
       <c r="C72" s="58">
         <v>1</v>
@@ -50358,7 +50358,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>2071</v>
+        <v>2172</v>
       </c>
       <c r="C73" s="58">
         <v>1</v>
@@ -50372,7 +50372,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="57" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="C74" s="58">
         <v>1</v>
@@ -50386,7 +50386,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="57" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="C75" s="58">
         <v>1</v>
@@ -50400,7 +50400,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="57" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
       <c r="C76" s="58">
         <v>1</v>

--- a/config_3.2/shoping_config_xiaomi.xlsx
+++ b/config_3.2/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4576" uniqueCount="2125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4632" uniqueCount="2143">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -9018,6 +9018,71 @@
   </si>
   <si>
     <t>20900000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>女神礼包-捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>女神礼包-捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_ty_csbox",</t>
+  </si>
+  <si>
+    <t>50200000,10,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2010万金币","双倍奖励卡*6","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_ty_ssbox",</t>
+  </si>
+  <si>
+    <t>"488万金币","双倍奖励卡*2","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_ty_xybox",</t>
+  </si>
+  <si>
+    <t>女神礼包-冲金鸡</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_ty_csbox",</t>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,2,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_ty_ssbox",</t>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"488万金币","水滴*2","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_ty_xybox",</t>
+  </si>
+  <si>
+    <t>4880000,4,3,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9096,7 +9161,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9157,24 +9222,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -9218,7 +9265,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9414,28 +9461,10 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11890,13 +11919,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN565"/>
+  <dimension ref="A1:AN573"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="Q540" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R560" sqref="R560"/>
+      <selection pane="bottomRight" activeCell="D569" sqref="D569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -46569,1596 +46598,2140 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A542" s="69">
+    <row r="542" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
         <v>541</v>
       </c>
-      <c r="B542" s="69">
+      <c r="B542" s="5">
         <v>10458</v>
       </c>
-      <c r="F542" s="69">
-        <v>1</v>
-      </c>
-      <c r="G542" s="69" t="s">
+      <c r="F542" s="5">
+        <v>1</v>
+      </c>
+      <c r="G542" s="5" t="s">
         <v>2045</v>
       </c>
-      <c r="I542" s="69" t="s">
+      <c r="I542" s="5" t="s">
         <v>2047</v>
       </c>
-      <c r="J542" s="69" t="s">
+      <c r="J542" s="5" t="s">
         <v>2048</v>
       </c>
-      <c r="L542" s="69">
+      <c r="L542" s="5">
         <v>-31</v>
       </c>
-      <c r="M542" s="69">
-        <v>0</v>
-      </c>
-      <c r="N542" s="69">
-        <v>0</v>
-      </c>
-      <c r="O542" s="69" t="s">
+      <c r="M542" s="5">
+        <v>0</v>
+      </c>
+      <c r="N542" s="5">
+        <v>0</v>
+      </c>
+      <c r="O542" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P542" s="69">
+      <c r="P542" s="5">
         <v>99800</v>
       </c>
-      <c r="Q542" s="69" t="s">
+      <c r="Q542" s="5" t="s">
         <v>2049</v>
       </c>
-      <c r="R542" s="70" t="s">
+      <c r="R542" s="10" t="s">
         <v>1488</v>
       </c>
-      <c r="W542" s="69" t="s">
+      <c r="W542" s="5" t="s">
         <v>2050</v>
       </c>
-      <c r="X542" s="69">
+      <c r="X542" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y542" s="71">
+      <c r="Y542" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z542" s="71">
+      <c r="Z542" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH542" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI542" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL542" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM542" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A543" s="69">
+      <c r="AH542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM542" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
         <v>542</v>
       </c>
-      <c r="B543" s="69">
+      <c r="B543" s="5">
         <v>10459</v>
       </c>
-      <c r="F543" s="69">
-        <v>1</v>
-      </c>
-      <c r="G543" s="69" t="s">
+      <c r="F543" s="5">
+        <v>1</v>
+      </c>
+      <c r="G543" s="5" t="s">
         <v>2051</v>
       </c>
-      <c r="I543" s="69" t="s">
+      <c r="I543" s="5" t="s">
         <v>2047</v>
       </c>
-      <c r="J543" s="69" t="s">
+      <c r="J543" s="5" t="s">
         <v>2052</v>
       </c>
-      <c r="L543" s="69">
+      <c r="L543" s="5">
         <v>-31</v>
       </c>
-      <c r="M543" s="69">
-        <v>0</v>
-      </c>
-      <c r="N543" s="69">
-        <v>0</v>
-      </c>
-      <c r="O543" s="69" t="s">
+      <c r="M543" s="5">
+        <v>0</v>
+      </c>
+      <c r="N543" s="5">
+        <v>0</v>
+      </c>
+      <c r="O543" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P543" s="69">
+      <c r="P543" s="5">
         <v>49800</v>
       </c>
-      <c r="Q543" s="69" t="s">
+      <c r="Q543" s="5" t="s">
         <v>2049</v>
       </c>
-      <c r="R543" s="70" t="s">
+      <c r="R543" s="10" t="s">
         <v>2053</v>
       </c>
-      <c r="W543" s="69" t="s">
+      <c r="W543" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X543" s="69">
+      <c r="X543" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y543" s="71">
+      <c r="Y543" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z543" s="71">
+      <c r="Z543" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH543" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI543" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL543" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM543" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A544" s="69">
+      <c r="AH543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM543" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
         <v>543</v>
       </c>
-      <c r="B544" s="69">
+      <c r="B544" s="5">
         <v>10460</v>
       </c>
-      <c r="F544" s="69">
-        <v>1</v>
-      </c>
-      <c r="G544" s="69" t="s">
+      <c r="F544" s="5">
+        <v>1</v>
+      </c>
+      <c r="G544" s="5" t="s">
         <v>2054</v>
       </c>
-      <c r="I544" s="69" t="s">
+      <c r="I544" s="5" t="s">
         <v>2046</v>
       </c>
-      <c r="J544" s="69" t="s">
+      <c r="J544" s="5" t="s">
         <v>2055</v>
       </c>
-      <c r="L544" s="69">
+      <c r="L544" s="5">
         <v>-31</v>
       </c>
-      <c r="M544" s="69">
-        <v>0</v>
-      </c>
-      <c r="N544" s="69">
-        <v>0</v>
-      </c>
-      <c r="O544" s="69" t="s">
+      <c r="M544" s="5">
+        <v>0</v>
+      </c>
+      <c r="N544" s="5">
+        <v>0</v>
+      </c>
+      <c r="O544" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P544" s="69">
+      <c r="P544" s="5">
         <v>29800</v>
       </c>
-      <c r="Q544" s="69" t="s">
+      <c r="Q544" s="5" t="s">
         <v>2056</v>
       </c>
-      <c r="R544" s="70" t="s">
+      <c r="R544" s="10" t="s">
         <v>2057</v>
       </c>
-      <c r="W544" s="69" t="s">
+      <c r="W544" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X544" s="69">
+      <c r="X544" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y544" s="71">
+      <c r="Y544" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z544" s="71">
+      <c r="Z544" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH544" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI544" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL544" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM544" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A545" s="69">
+      <c r="AH544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM544" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
         <v>544</v>
       </c>
-      <c r="B545" s="69">
+      <c r="B545" s="5">
         <v>10461</v>
       </c>
-      <c r="F545" s="69">
-        <v>1</v>
-      </c>
-      <c r="G545" s="69" t="s">
+      <c r="F545" s="5">
+        <v>1</v>
+      </c>
+      <c r="G545" s="5" t="s">
         <v>2058</v>
       </c>
-      <c r="I545" s="69" t="s">
+      <c r="I545" s="5" t="s">
         <v>2047</v>
       </c>
-      <c r="J545" s="69" t="s">
+      <c r="J545" s="5" t="s">
         <v>2059</v>
       </c>
-      <c r="L545" s="69">
+      <c r="L545" s="5">
         <v>-31</v>
       </c>
-      <c r="M545" s="69">
-        <v>0</v>
-      </c>
-      <c r="N545" s="69">
-        <v>0</v>
-      </c>
-      <c r="O545" s="69" t="s">
+      <c r="M545" s="5">
+        <v>0</v>
+      </c>
+      <c r="N545" s="5">
+        <v>0</v>
+      </c>
+      <c r="O545" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P545" s="69">
+      <c r="P545" s="5">
         <v>19800</v>
       </c>
-      <c r="Q545" s="69" t="s">
+      <c r="Q545" s="5" t="s">
         <v>2056</v>
       </c>
-      <c r="R545" s="70" t="s">
+      <c r="R545" s="10" t="s">
         <v>1345</v>
       </c>
-      <c r="W545" s="69" t="s">
+      <c r="W545" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X545" s="69">
+      <c r="X545" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y545" s="71">
+      <c r="Y545" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z545" s="71">
+      <c r="Z545" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH545" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI545" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL545" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM545" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A546" s="69">
+      <c r="AH545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM545" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
         <v>545</v>
       </c>
-      <c r="B546" s="69">
+      <c r="B546" s="5">
         <v>10462</v>
       </c>
-      <c r="F546" s="69">
-        <v>1</v>
-      </c>
-      <c r="G546" s="69" t="s">
+      <c r="F546" s="5">
+        <v>1</v>
+      </c>
+      <c r="G546" s="5" t="s">
         <v>2060</v>
       </c>
-      <c r="I546" s="69" t="s">
+      <c r="I546" s="5" t="s">
         <v>2047</v>
       </c>
-      <c r="J546" s="69" t="s">
+      <c r="J546" s="5" t="s">
         <v>2061</v>
       </c>
-      <c r="L546" s="69">
+      <c r="L546" s="5">
         <v>-31</v>
       </c>
-      <c r="M546" s="69">
-        <v>0</v>
-      </c>
-      <c r="N546" s="69">
-        <v>0</v>
-      </c>
-      <c r="O546" s="69" t="s">
+      <c r="M546" s="5">
+        <v>0</v>
+      </c>
+      <c r="N546" s="5">
+        <v>0</v>
+      </c>
+      <c r="O546" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P546" s="69">
+      <c r="P546" s="5">
         <v>9800</v>
       </c>
-      <c r="Q546" s="69" t="s">
+      <c r="Q546" s="5" t="s">
         <v>1472</v>
       </c>
-      <c r="R546" s="70" t="s">
+      <c r="R546" s="10" t="s">
         <v>2062</v>
       </c>
-      <c r="W546" s="69" t="s">
+      <c r="W546" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X546" s="69">
+      <c r="X546" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y546" s="71">
+      <c r="Y546" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z546" s="71">
+      <c r="Z546" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH546" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI546" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL546" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM546" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="547" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A547" s="69">
+      <c r="AH546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM546" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
         <v>546</v>
       </c>
-      <c r="B547" s="69">
+      <c r="B547" s="5">
         <v>10463</v>
       </c>
-      <c r="F547" s="69">
-        <v>1</v>
-      </c>
-      <c r="G547" s="69" t="s">
+      <c r="F547" s="5">
+        <v>1</v>
+      </c>
+      <c r="G547" s="5" t="s">
         <v>2063</v>
       </c>
-      <c r="I547" s="69" t="s">
+      <c r="I547" s="5" t="s">
         <v>2047</v>
       </c>
-      <c r="J547" s="69" t="s">
+      <c r="J547" s="5" t="s">
         <v>2064</v>
       </c>
-      <c r="L547" s="69">
+      <c r="L547" s="5">
         <v>-31</v>
       </c>
-      <c r="M547" s="69">
-        <v>0</v>
-      </c>
-      <c r="N547" s="69">
-        <v>0</v>
-      </c>
-      <c r="O547" s="69" t="s">
+      <c r="M547" s="5">
+        <v>0</v>
+      </c>
+      <c r="N547" s="5">
+        <v>0</v>
+      </c>
+      <c r="O547" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P547" s="69">
+      <c r="P547" s="5">
         <v>4800</v>
       </c>
-      <c r="Q547" s="69" t="s">
+      <c r="Q547" s="5" t="s">
         <v>2065</v>
       </c>
-      <c r="R547" s="70" t="s">
+      <c r="R547" s="10" t="s">
         <v>2066</v>
       </c>
-      <c r="W547" s="69" t="s">
+      <c r="W547" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X547" s="69">
+      <c r="X547" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y547" s="71">
+      <c r="Y547" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z547" s="71">
+      <c r="Z547" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH547" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI547" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL547" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM547" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A548" s="69">
+      <c r="AH547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM547" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
         <v>547</v>
       </c>
-      <c r="B548" s="69">
+      <c r="B548" s="5">
         <v>10464</v>
       </c>
-      <c r="F548" s="69">
-        <v>1</v>
-      </c>
-      <c r="G548" s="69" t="s">
+      <c r="F548" s="5">
+        <v>1</v>
+      </c>
+      <c r="G548" s="5" t="s">
         <v>2067</v>
       </c>
-      <c r="I548" s="69" t="s">
+      <c r="I548" s="5" t="s">
         <v>2047</v>
       </c>
-      <c r="J548" s="69" t="s">
+      <c r="J548" s="5" t="s">
         <v>2068</v>
       </c>
-      <c r="L548" s="69">
+      <c r="L548" s="5">
         <v>-31</v>
       </c>
-      <c r="M548" s="69">
-        <v>0</v>
-      </c>
-      <c r="N548" s="69">
-        <v>0</v>
-      </c>
-      <c r="O548" s="69" t="s">
+      <c r="M548" s="5">
+        <v>0</v>
+      </c>
+      <c r="N548" s="5">
+        <v>0</v>
+      </c>
+      <c r="O548" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P548" s="69">
+      <c r="P548" s="5">
         <v>1800</v>
       </c>
-      <c r="Q548" s="69" t="s">
+      <c r="Q548" s="5" t="s">
         <v>2065</v>
       </c>
-      <c r="R548" s="70" t="s">
+      <c r="R548" s="10" t="s">
         <v>2069</v>
       </c>
-      <c r="W548" s="69" t="s">
+      <c r="W548" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X548" s="69">
+      <c r="X548" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y548" s="71">
+      <c r="Y548" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z548" s="71">
+      <c r="Z548" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH548" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI548" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL548" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM548" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="549" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM548" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A549" s="5">
         <v>548</v>
       </c>
-      <c r="B549" s="65">
+      <c r="B549" s="5">
         <v>10465</v>
       </c>
-      <c r="F549" s="65">
-        <v>1</v>
-      </c>
-      <c r="G549" s="65" t="s">
+      <c r="F549" s="5">
+        <v>1</v>
+      </c>
+      <c r="G549" s="5" t="s">
         <v>2076</v>
       </c>
-      <c r="I549" s="65" t="s">
+      <c r="I549" s="5" t="s">
         <v>2077</v>
       </c>
-      <c r="J549" s="65" t="s">
+      <c r="J549" s="5" t="s">
         <v>2078</v>
       </c>
-      <c r="L549" s="65">
+      <c r="L549" s="5">
         <v>-31</v>
       </c>
-      <c r="M549" s="65">
-        <v>0</v>
-      </c>
-      <c r="N549" s="65">
-        <v>0</v>
-      </c>
-      <c r="O549" s="65" t="s">
+      <c r="M549" s="5">
+        <v>0</v>
+      </c>
+      <c r="N549" s="5">
+        <v>0</v>
+      </c>
+      <c r="O549" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P549" s="65">
+      <c r="P549" s="5">
         <v>49800</v>
       </c>
-      <c r="Q549" s="65" t="s">
+      <c r="Q549" s="5" t="s">
         <v>2079</v>
       </c>
-      <c r="R549" s="66" t="s">
+      <c r="R549" s="10" t="s">
         <v>2080</v>
       </c>
-      <c r="W549" s="65" t="s">
+      <c r="W549" s="5" t="s">
         <v>1696</v>
       </c>
-      <c r="X549" s="65">
+      <c r="X549" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y549" s="65">
+      <c r="Y549" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z549" s="65">
+      <c r="Z549" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA549" s="65">
+      <c r="AA549" s="5">
         <v>66</v>
       </c>
-      <c r="AH549" s="65">
-        <v>1</v>
-      </c>
-      <c r="AI549" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL549" s="65">
-        <v>1</v>
-      </c>
-      <c r="AM549" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="550" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH549" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI549" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL549" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM549" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" s="5">
         <v>549</v>
       </c>
-      <c r="B550" s="65">
+      <c r="B550" s="5">
         <v>10466</v>
       </c>
-      <c r="F550" s="65">
-        <v>1</v>
-      </c>
-      <c r="G550" s="65" t="s">
+      <c r="F550" s="5">
+        <v>1</v>
+      </c>
+      <c r="G550" s="5" t="s">
         <v>2076</v>
       </c>
-      <c r="I550" s="65" t="s">
+      <c r="I550" s="5" t="s">
         <v>2081</v>
       </c>
-      <c r="J550" s="65" t="s">
+      <c r="J550" s="5" t="s">
         <v>2082</v>
       </c>
-      <c r="L550" s="65">
+      <c r="L550" s="5">
         <v>-31</v>
       </c>
-      <c r="M550" s="65">
-        <v>0</v>
-      </c>
-      <c r="N550" s="65">
-        <v>0</v>
-      </c>
-      <c r="O550" s="65" t="s">
+      <c r="M550" s="5">
+        <v>0</v>
+      </c>
+      <c r="N550" s="5">
+        <v>0</v>
+      </c>
+      <c r="O550" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P550" s="65">
+      <c r="P550" s="5">
         <v>19800</v>
       </c>
-      <c r="Q550" s="65" t="s">
+      <c r="Q550" s="5" t="s">
         <v>2079</v>
       </c>
-      <c r="R550" s="66" t="s">
+      <c r="R550" s="10" t="s">
         <v>2083</v>
       </c>
-      <c r="W550" s="65" t="s">
+      <c r="W550" s="5" t="s">
         <v>1696</v>
       </c>
-      <c r="X550" s="65">
+      <c r="X550" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y550" s="65">
+      <c r="Y550" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z550" s="65">
+      <c r="Z550" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA550" s="65">
+      <c r="AA550" s="5">
         <v>66</v>
       </c>
-      <c r="AH550" s="65">
-        <v>1</v>
-      </c>
-      <c r="AI550" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL550" s="65">
-        <v>1</v>
-      </c>
-      <c r="AM550" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="551" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH550" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI550" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL550" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM550" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A551" s="5">
         <v>550</v>
       </c>
-      <c r="B551" s="65">
+      <c r="B551" s="5">
         <v>10467</v>
       </c>
-      <c r="F551" s="65">
-        <v>1</v>
-      </c>
-      <c r="G551" s="65" t="s">
+      <c r="F551" s="5">
+        <v>1</v>
+      </c>
+      <c r="G551" s="5" t="s">
         <v>2084</v>
       </c>
-      <c r="I551" s="65" t="s">
+      <c r="I551" s="5" t="s">
         <v>2085</v>
       </c>
-      <c r="J551" s="65" t="s">
+      <c r="J551" s="5" t="s">
         <v>2086</v>
       </c>
-      <c r="L551" s="65">
+      <c r="L551" s="5">
         <v>-31</v>
       </c>
-      <c r="M551" s="65">
-        <v>0</v>
-      </c>
-      <c r="N551" s="65">
-        <v>0</v>
-      </c>
-      <c r="O551" s="65" t="s">
+      <c r="M551" s="5">
+        <v>0</v>
+      </c>
+      <c r="N551" s="5">
+        <v>0</v>
+      </c>
+      <c r="O551" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P551" s="65">
+      <c r="P551" s="5">
         <v>9800</v>
       </c>
-      <c r="Q551" s="65" t="s">
+      <c r="Q551" s="5" t="s">
         <v>2079</v>
       </c>
-      <c r="R551" s="66" t="s">
+      <c r="R551" s="10" t="s">
         <v>2087</v>
       </c>
-      <c r="W551" s="65" t="s">
+      <c r="W551" s="5" t="s">
         <v>1696</v>
       </c>
-      <c r="X551" s="65">
+      <c r="X551" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y551" s="65">
+      <c r="Y551" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z551" s="65">
+      <c r="Z551" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA551" s="65">
+      <c r="AA551" s="5">
         <v>66</v>
       </c>
-      <c r="AH551" s="65">
-        <v>1</v>
-      </c>
-      <c r="AI551" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL551" s="65">
-        <v>1</v>
-      </c>
-      <c r="AM551" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="552" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH551" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI551" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL551" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM551" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552" s="5">
         <v>551</v>
       </c>
-      <c r="B552" s="65">
+      <c r="B552" s="5">
         <v>10468</v>
       </c>
-      <c r="F552" s="65">
-        <v>1</v>
-      </c>
-      <c r="G552" s="65" t="s">
+      <c r="F552" s="5">
+        <v>1</v>
+      </c>
+      <c r="G552" s="5" t="s">
         <v>2076</v>
       </c>
-      <c r="I552" s="65" t="s">
+      <c r="I552" s="5" t="s">
         <v>2088</v>
       </c>
-      <c r="J552" s="65" t="s">
+      <c r="J552" s="5" t="s">
         <v>2089</v>
       </c>
-      <c r="L552" s="65">
+      <c r="L552" s="5">
         <v>-31</v>
       </c>
-      <c r="M552" s="65">
-        <v>0</v>
-      </c>
-      <c r="N552" s="65">
-        <v>0</v>
-      </c>
-      <c r="O552" s="65" t="s">
+      <c r="M552" s="5">
+        <v>0</v>
+      </c>
+      <c r="N552" s="5">
+        <v>0</v>
+      </c>
+      <c r="O552" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P552" s="65">
+      <c r="P552" s="5">
         <v>4800</v>
       </c>
-      <c r="Q552" s="65" t="s">
+      <c r="Q552" s="5" t="s">
         <v>2079</v>
       </c>
-      <c r="R552" s="66" t="s">
+      <c r="R552" s="10" t="s">
         <v>2090</v>
       </c>
-      <c r="W552" s="65" t="s">
+      <c r="W552" s="5" t="s">
         <v>1696</v>
       </c>
-      <c r="X552" s="65">
+      <c r="X552" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y552" s="65">
+      <c r="Y552" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z552" s="65">
+      <c r="Z552" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA552" s="65">
+      <c r="AA552" s="5">
         <v>66</v>
       </c>
-      <c r="AH552" s="65">
-        <v>1</v>
-      </c>
-      <c r="AI552" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL552" s="65">
-        <v>1</v>
-      </c>
-      <c r="AM552" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="553" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH552" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI552" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL552" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM552" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A553" s="5">
         <v>552</v>
       </c>
-      <c r="B553" s="67">
+      <c r="B553" s="5">
         <v>10469</v>
       </c>
-      <c r="F553" s="67">
-        <v>1</v>
-      </c>
-      <c r="G553" s="67" t="s">
+      <c r="F553" s="5">
+        <v>1</v>
+      </c>
+      <c r="G553" s="5" t="s">
         <v>2092</v>
       </c>
-      <c r="I553" s="67" t="s">
+      <c r="I553" s="5" t="s">
         <v>2077</v>
       </c>
-      <c r="J553" s="67" t="s">
+      <c r="J553" s="5" t="s">
         <v>2093</v>
       </c>
-      <c r="L553" s="67">
+      <c r="L553" s="5">
         <v>-31</v>
       </c>
-      <c r="M553" s="67">
-        <v>0</v>
-      </c>
-      <c r="N553" s="67">
-        <v>0</v>
-      </c>
-      <c r="O553" s="67" t="s">
+      <c r="M553" s="5">
+        <v>0</v>
+      </c>
+      <c r="N553" s="5">
+        <v>0</v>
+      </c>
+      <c r="O553" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P553" s="67">
+      <c r="P553" s="5">
         <v>49800</v>
       </c>
-      <c r="Q553" s="67" t="s">
+      <c r="Q553" s="5" t="s">
         <v>2094</v>
       </c>
-      <c r="R553" s="68" t="s">
+      <c r="R553" s="10" t="s">
         <v>2095</v>
       </c>
-      <c r="W553" s="67" t="s">
+      <c r="W553" s="5" t="s">
         <v>2113</v>
       </c>
-      <c r="X553" s="67">
+      <c r="X553" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y553" s="67">
+      <c r="Y553" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z553" s="67">
+      <c r="Z553" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA553" s="67">
+      <c r="AA553" s="5">
         <v>67</v>
       </c>
-      <c r="AH553" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI553" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL553" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM553" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="554" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH553" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI553" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL553" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM553" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A554" s="5">
         <v>553</v>
       </c>
-      <c r="B554" s="67">
+      <c r="B554" s="5">
         <v>10470</v>
       </c>
-      <c r="F554" s="67">
-        <v>1</v>
-      </c>
-      <c r="G554" s="67" t="s">
+      <c r="F554" s="5">
+        <v>1</v>
+      </c>
+      <c r="G554" s="5" t="s">
         <v>2091</v>
       </c>
-      <c r="I554" s="67" t="s">
+      <c r="I554" s="5" t="s">
         <v>2096</v>
       </c>
-      <c r="J554" s="67" t="s">
+      <c r="J554" s="5" t="s">
         <v>2097</v>
       </c>
-      <c r="L554" s="67">
+      <c r="L554" s="5">
         <v>-31</v>
       </c>
-      <c r="M554" s="67">
-        <v>0</v>
-      </c>
-      <c r="N554" s="67">
-        <v>0</v>
-      </c>
-      <c r="O554" s="67" t="s">
+      <c r="M554" s="5">
+        <v>0</v>
+      </c>
+      <c r="N554" s="5">
+        <v>0</v>
+      </c>
+      <c r="O554" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P554" s="67">
+      <c r="P554" s="5">
         <v>19800</v>
       </c>
-      <c r="Q554" s="67" t="s">
+      <c r="Q554" s="5" t="s">
         <v>2098</v>
       </c>
-      <c r="R554" s="68" t="s">
+      <c r="R554" s="10" t="s">
         <v>2099</v>
       </c>
-      <c r="W554" s="67" t="s">
+      <c r="W554" s="5" t="s">
         <v>2113</v>
       </c>
-      <c r="X554" s="67">
+      <c r="X554" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y554" s="67">
+      <c r="Y554" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z554" s="67">
+      <c r="Z554" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA554" s="67">
+      <c r="AA554" s="5">
         <v>67</v>
       </c>
-      <c r="AH554" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI554" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL554" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM554" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="555" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH554" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI554" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL554" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM554" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A555" s="5">
         <v>554</v>
       </c>
-      <c r="B555" s="67">
+      <c r="B555" s="5">
         <v>10471</v>
       </c>
-      <c r="F555" s="67">
-        <v>1</v>
-      </c>
-      <c r="G555" s="67" t="s">
+      <c r="F555" s="5">
+        <v>1</v>
+      </c>
+      <c r="G555" s="5" t="s">
         <v>2100</v>
       </c>
-      <c r="I555" s="67" t="s">
+      <c r="I555" s="5" t="s">
         <v>2085</v>
       </c>
-      <c r="J555" s="67" t="s">
+      <c r="J555" s="5" t="s">
         <v>2101</v>
       </c>
-      <c r="L555" s="67">
+      <c r="L555" s="5">
         <v>-31</v>
       </c>
-      <c r="M555" s="67">
-        <v>0</v>
-      </c>
-      <c r="N555" s="67">
-        <v>0</v>
-      </c>
-      <c r="O555" s="67" t="s">
+      <c r="M555" s="5">
+        <v>0</v>
+      </c>
+      <c r="N555" s="5">
+        <v>0</v>
+      </c>
+      <c r="O555" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P555" s="67">
+      <c r="P555" s="5">
         <v>9800</v>
       </c>
-      <c r="Q555" s="67" t="s">
+      <c r="Q555" s="5" t="s">
         <v>2102</v>
       </c>
-      <c r="R555" s="68" t="s">
+      <c r="R555" s="10" t="s">
         <v>2103</v>
       </c>
-      <c r="W555" s="67" t="s">
+      <c r="W555" s="5" t="s">
         <v>2113</v>
       </c>
-      <c r="X555" s="67">
+      <c r="X555" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y555" s="67">
+      <c r="Y555" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z555" s="67">
+      <c r="Z555" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA555" s="67">
+      <c r="AA555" s="5">
         <v>67</v>
       </c>
-      <c r="AH555" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI555" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL555" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM555" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="556" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH555" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI555" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL555" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM555" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A556" s="5">
         <v>555</v>
       </c>
-      <c r="B556" s="67">
+      <c r="B556" s="5">
         <v>10472</v>
       </c>
-      <c r="F556" s="67">
-        <v>1</v>
-      </c>
-      <c r="G556" s="67" t="s">
+      <c r="F556" s="5">
+        <v>1</v>
+      </c>
+      <c r="G556" s="5" t="s">
         <v>2104</v>
       </c>
-      <c r="I556" s="67" t="s">
+      <c r="I556" s="5" t="s">
         <v>2105</v>
       </c>
-      <c r="J556" s="67" t="s">
+      <c r="J556" s="5" t="s">
         <v>2106</v>
       </c>
-      <c r="L556" s="67">
+      <c r="L556" s="5">
         <v>-31</v>
       </c>
-      <c r="M556" s="67">
-        <v>0</v>
-      </c>
-      <c r="N556" s="67">
-        <v>0</v>
-      </c>
-      <c r="O556" s="67" t="s">
+      <c r="M556" s="5">
+        <v>0</v>
+      </c>
+      <c r="N556" s="5">
+        <v>0</v>
+      </c>
+      <c r="O556" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P556" s="67">
+      <c r="P556" s="5">
         <v>4800</v>
       </c>
-      <c r="Q556" s="67" t="s">
+      <c r="Q556" s="5" t="s">
         <v>2107</v>
       </c>
-      <c r="R556" s="68" t="s">
+      <c r="R556" s="10" t="s">
         <v>2108</v>
       </c>
-      <c r="W556" s="67" t="s">
+      <c r="W556" s="5" t="s">
         <v>2113</v>
       </c>
-      <c r="X556" s="67">
+      <c r="X556" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y556" s="67">
+      <c r="Y556" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z556" s="67">
+      <c r="Z556" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA556" s="67">
+      <c r="AA556" s="5">
         <v>67</v>
       </c>
-      <c r="AH556" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI556" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL556" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM556" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="557" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH556" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI556" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL556" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM556" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A557" s="5">
         <v>556</v>
       </c>
-      <c r="B557" s="19">
+      <c r="B557" s="5">
         <v>10473</v>
       </c>
-      <c r="F557" s="19">
-        <v>1</v>
-      </c>
-      <c r="G557" s="19" t="s">
+      <c r="F557" s="5">
+        <v>1</v>
+      </c>
+      <c r="G557" s="5" t="s">
         <v>2110</v>
       </c>
-      <c r="I557" s="19" t="s">
+      <c r="I557" s="5" t="s">
         <v>2111</v>
       </c>
-      <c r="J557" s="19" t="s">
+      <c r="J557" s="5" t="s">
         <v>2114</v>
       </c>
-      <c r="L557" s="19">
+      <c r="L557" s="5">
         <v>-25</v>
       </c>
-      <c r="M557" s="19">
-        <v>0</v>
-      </c>
-      <c r="N557" s="19">
-        <v>0</v>
-      </c>
-      <c r="O557" s="19" t="s">
+      <c r="M557" s="5">
+        <v>0</v>
+      </c>
+      <c r="N557" s="5">
+        <v>0</v>
+      </c>
+      <c r="O557" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P557" s="19">
+      <c r="P557" s="5">
         <v>100</v>
       </c>
-      <c r="Q557" s="19" t="s">
+      <c r="Q557" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R557" s="72" t="s">
+      <c r="R557" s="65" t="s">
         <v>2121</v>
       </c>
-      <c r="W557" s="19" t="s">
+      <c r="W557" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X557" s="19">
+      <c r="X557" s="5">
         <v>50</v>
       </c>
-      <c r="Y557" s="19">
+      <c r="Y557" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z557" s="19">
+      <c r="Z557" s="5">
         <v>1613440800</v>
       </c>
-      <c r="AE557" s="19">
+      <c r="AE557" s="5">
         <f t="shared" ref="AE557:AE565" si="1">24*60*60</f>
         <v>86400</v>
       </c>
-      <c r="AF557" s="19">
+      <c r="AF557" s="5">
         <v>7</v>
       </c>
-      <c r="AH557" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI557" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="558" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH557" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI557" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A558" s="5">
         <v>557</v>
       </c>
-      <c r="B558" s="19">
+      <c r="B558" s="5">
         <v>10474</v>
       </c>
-      <c r="F558" s="19">
-        <v>1</v>
-      </c>
-      <c r="G558" s="19" t="s">
+      <c r="F558" s="5">
+        <v>1</v>
+      </c>
+      <c r="G558" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="I558" s="19" t="s">
+      <c r="I558" s="5" t="s">
         <v>2111</v>
       </c>
-      <c r="J558" s="19" t="s">
+      <c r="J558" s="5" t="s">
         <v>2115</v>
       </c>
-      <c r="L558" s="19">
+      <c r="L558" s="5">
         <v>-25</v>
       </c>
-      <c r="M558" s="19">
-        <v>0</v>
-      </c>
-      <c r="N558" s="19">
-        <v>0</v>
-      </c>
-      <c r="O558" s="19" t="s">
+      <c r="M558" s="5">
+        <v>0</v>
+      </c>
+      <c r="N558" s="5">
+        <v>0</v>
+      </c>
+      <c r="O558" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P558" s="19">
+      <c r="P558" s="5">
         <v>1800</v>
       </c>
-      <c r="Q558" s="19" t="s">
+      <c r="Q558" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R558" s="72" t="s">
+      <c r="R558" s="65" t="s">
         <v>654</v>
       </c>
-      <c r="W558" s="19" t="s">
+      <c r="W558" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X558" s="19">
+      <c r="X558" s="5">
         <v>20</v>
       </c>
-      <c r="Y558" s="19">
+      <c r="Y558" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z558" s="19">
+      <c r="Z558" s="5">
         <v>1613440800</v>
       </c>
-      <c r="AE558" s="19">
+      <c r="AE558" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF558" s="19">
+      <c r="AF558" s="5">
         <v>7</v>
       </c>
-      <c r="AH558" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI558" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="559" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH558" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI558" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A559" s="5">
         <v>558</v>
       </c>
-      <c r="B559" s="19">
+      <c r="B559" s="5">
         <v>10475</v>
       </c>
-      <c r="F559" s="19">
-        <v>1</v>
-      </c>
-      <c r="G559" s="19" t="s">
+      <c r="F559" s="5">
+        <v>1</v>
+      </c>
+      <c r="G559" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="I559" s="19" t="s">
+      <c r="I559" s="5" t="s">
         <v>2111</v>
       </c>
-      <c r="J559" s="19" t="s">
+      <c r="J559" s="5" t="s">
         <v>2116</v>
       </c>
-      <c r="L559" s="19">
+      <c r="L559" s="5">
         <v>-25</v>
       </c>
-      <c r="M559" s="19">
-        <v>0</v>
-      </c>
-      <c r="N559" s="19">
-        <v>0</v>
-      </c>
-      <c r="O559" s="19" t="s">
+      <c r="M559" s="5">
+        <v>0</v>
+      </c>
+      <c r="N559" s="5">
+        <v>0</v>
+      </c>
+      <c r="O559" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P559" s="19">
+      <c r="P559" s="5">
         <v>4800</v>
       </c>
-      <c r="Q559" s="19" t="s">
+      <c r="Q559" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R559" s="72" t="s">
+      <c r="R559" s="65" t="s">
         <v>2122</v>
       </c>
-      <c r="W559" s="19" t="s">
+      <c r="W559" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X559" s="19">
+      <c r="X559" s="5">
         <v>10</v>
       </c>
-      <c r="Y559" s="19">
+      <c r="Y559" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z559" s="19">
+      <c r="Z559" s="5">
         <v>1613440800</v>
       </c>
-      <c r="AE559" s="19">
+      <c r="AE559" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF559" s="19">
+      <c r="AF559" s="5">
         <v>7</v>
       </c>
-      <c r="AH559" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI559" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="560" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH559" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI559" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A560" s="5">
         <v>559</v>
       </c>
-      <c r="B560" s="19">
+      <c r="B560" s="5">
         <v>10476</v>
       </c>
-      <c r="F560" s="19">
-        <v>1</v>
-      </c>
-      <c r="G560" s="19" t="s">
+      <c r="F560" s="5">
+        <v>1</v>
+      </c>
+      <c r="G560" s="5" t="s">
         <v>2109</v>
       </c>
-      <c r="I560" s="19" t="s">
+      <c r="I560" s="5" t="s">
         <v>2111</v>
       </c>
-      <c r="J560" s="19" t="s">
+      <c r="J560" s="5" t="s">
         <v>2114</v>
       </c>
-      <c r="L560" s="19">
+      <c r="L560" s="5">
         <v>-25</v>
       </c>
-      <c r="M560" s="19">
-        <v>0</v>
-      </c>
-      <c r="N560" s="19">
-        <v>0</v>
-      </c>
-      <c r="O560" s="19" t="s">
+      <c r="M560" s="5">
+        <v>0</v>
+      </c>
+      <c r="N560" s="5">
+        <v>0</v>
+      </c>
+      <c r="O560" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P560" s="19">
+      <c r="P560" s="5">
         <v>100</v>
       </c>
-      <c r="Q560" s="19" t="s">
+      <c r="Q560" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R560" s="72" t="s">
+      <c r="R560" s="65" t="s">
         <v>989</v>
       </c>
-      <c r="W560" s="19" t="s">
+      <c r="W560" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X560" s="19">
+      <c r="X560" s="5">
         <v>50</v>
       </c>
-      <c r="Y560" s="19">
+      <c r="Y560" s="5">
         <v>1613448000</v>
       </c>
-      <c r="Z560" s="19">
+      <c r="Z560" s="5">
         <v>1613455200</v>
       </c>
-      <c r="AE560" s="19">
+      <c r="AE560" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF560" s="19">
+      <c r="AF560" s="5">
         <v>7</v>
       </c>
-      <c r="AH560" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI560" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="561" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH560" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI560" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" s="5">
         <v>560</v>
       </c>
-      <c r="B561" s="19">
+      <c r="B561" s="5">
         <v>10477</v>
       </c>
-      <c r="F561" s="19">
-        <v>1</v>
-      </c>
-      <c r="G561" s="19" t="s">
+      <c r="F561" s="5">
+        <v>1</v>
+      </c>
+      <c r="G561" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="I561" s="19" t="s">
+      <c r="I561" s="5" t="s">
         <v>2111</v>
       </c>
-      <c r="J561" s="19" t="s">
+      <c r="J561" s="5" t="s">
         <v>2117</v>
       </c>
-      <c r="L561" s="19">
+      <c r="L561" s="5">
         <v>-25</v>
       </c>
-      <c r="M561" s="19">
-        <v>0</v>
-      </c>
-      <c r="N561" s="19">
-        <v>0</v>
-      </c>
-      <c r="O561" s="19" t="s">
+      <c r="M561" s="5">
+        <v>0</v>
+      </c>
+      <c r="N561" s="5">
+        <v>0</v>
+      </c>
+      <c r="O561" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P561" s="19">
+      <c r="P561" s="5">
         <v>2800</v>
       </c>
-      <c r="Q561" s="19" t="s">
+      <c r="Q561" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R561" s="72" t="s">
+      <c r="R561" s="65" t="s">
         <v>1618</v>
       </c>
-      <c r="W561" s="19" t="s">
+      <c r="W561" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X561" s="19">
+      <c r="X561" s="5">
         <v>20</v>
       </c>
-      <c r="Y561" s="19">
+      <c r="Y561" s="5">
         <v>1613448000</v>
       </c>
-      <c r="Z561" s="19">
+      <c r="Z561" s="5">
         <v>1613455200</v>
       </c>
-      <c r="AE561" s="19">
+      <c r="AE561" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF561" s="19">
+      <c r="AF561" s="5">
         <v>7</v>
       </c>
-      <c r="AH561" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI561" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="562" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH561" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI561" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A562" s="5">
         <v>561</v>
       </c>
-      <c r="B562" s="19">
+      <c r="B562" s="5">
         <v>10478</v>
       </c>
-      <c r="F562" s="19">
-        <v>1</v>
-      </c>
-      <c r="G562" s="19" t="s">
+      <c r="F562" s="5">
+        <v>1</v>
+      </c>
+      <c r="G562" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I562" s="19" t="s">
+      <c r="I562" s="5" t="s">
         <v>2111</v>
       </c>
-      <c r="J562" s="19" t="s">
+      <c r="J562" s="5" t="s">
         <v>2118</v>
       </c>
-      <c r="L562" s="19">
+      <c r="L562" s="5">
         <v>-25</v>
       </c>
-      <c r="M562" s="19">
-        <v>0</v>
-      </c>
-      <c r="N562" s="19">
-        <v>0</v>
-      </c>
-      <c r="O562" s="19" t="s">
+      <c r="M562" s="5">
+        <v>0</v>
+      </c>
+      <c r="N562" s="5">
+        <v>0</v>
+      </c>
+      <c r="O562" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P562" s="19">
+      <c r="P562" s="5">
         <v>9800</v>
       </c>
-      <c r="Q562" s="19" t="s">
+      <c r="Q562" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R562" s="72" t="s">
+      <c r="R562" s="65" t="s">
         <v>2123</v>
       </c>
-      <c r="W562" s="19" t="s">
+      <c r="W562" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X562" s="19">
+      <c r="X562" s="5">
         <v>10</v>
       </c>
-      <c r="Y562" s="19">
+      <c r="Y562" s="5">
         <v>1613448000</v>
       </c>
-      <c r="Z562" s="19">
+      <c r="Z562" s="5">
         <v>1613455200</v>
       </c>
-      <c r="AE562" s="19">
+      <c r="AE562" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF562" s="19">
+      <c r="AF562" s="5">
         <v>7</v>
       </c>
-      <c r="AH562" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI562" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="563" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH562" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI562" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A563" s="5">
         <v>562</v>
       </c>
-      <c r="B563" s="19">
+      <c r="B563" s="5">
         <v>10479</v>
       </c>
-      <c r="F563" s="19">
-        <v>1</v>
-      </c>
-      <c r="G563" s="19" t="s">
+      <c r="F563" s="5">
+        <v>1</v>
+      </c>
+      <c r="G563" s="5" t="s">
         <v>2109</v>
       </c>
-      <c r="I563" s="19" t="s">
+      <c r="I563" s="5" t="s">
         <v>2112</v>
       </c>
-      <c r="J563" s="19" t="s">
+      <c r="J563" s="5" t="s">
         <v>2114</v>
       </c>
-      <c r="L563" s="19">
+      <c r="L563" s="5">
         <v>-25</v>
       </c>
-      <c r="M563" s="19">
-        <v>0</v>
-      </c>
-      <c r="N563" s="19">
-        <v>0</v>
-      </c>
-      <c r="O563" s="19" t="s">
+      <c r="M563" s="5">
+        <v>0</v>
+      </c>
+      <c r="N563" s="5">
+        <v>0</v>
+      </c>
+      <c r="O563" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P563" s="19">
+      <c r="P563" s="5">
         <v>100</v>
       </c>
-      <c r="Q563" s="19" t="s">
+      <c r="Q563" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R563" s="72" t="s">
+      <c r="R563" s="65" t="s">
         <v>989</v>
       </c>
-      <c r="W563" s="19" t="s">
+      <c r="W563" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X563" s="19">
+      <c r="X563" s="5">
         <v>50</v>
       </c>
-      <c r="Y563" s="19">
+      <c r="Y563" s="5">
         <v>1613469600</v>
       </c>
-      <c r="Z563" s="19">
+      <c r="Z563" s="5">
         <v>1613484000</v>
       </c>
-      <c r="AE563" s="19">
+      <c r="AE563" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF563" s="19">
+      <c r="AF563" s="5">
         <v>7</v>
       </c>
-      <c r="AH563" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI563" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="564" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH563" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI563" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A564" s="5">
         <v>563</v>
       </c>
-      <c r="B564" s="19">
+      <c r="B564" s="5">
         <v>10480</v>
       </c>
-      <c r="F564" s="19">
-        <v>1</v>
-      </c>
-      <c r="G564" s="19" t="s">
+      <c r="F564" s="5">
+        <v>1</v>
+      </c>
+      <c r="G564" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="I564" s="19" t="s">
+      <c r="I564" s="5" t="s">
         <v>2111</v>
       </c>
-      <c r="J564" s="19" t="s">
+      <c r="J564" s="5" t="s">
         <v>2119</v>
       </c>
-      <c r="L564" s="19">
+      <c r="L564" s="5">
         <v>-25</v>
       </c>
-      <c r="M564" s="19">
-        <v>0</v>
-      </c>
-      <c r="N564" s="19">
-        <v>0</v>
-      </c>
-      <c r="O564" s="19" t="s">
+      <c r="M564" s="5">
+        <v>0</v>
+      </c>
+      <c r="N564" s="5">
+        <v>0</v>
+      </c>
+      <c r="O564" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P564" s="19">
+      <c r="P564" s="5">
         <v>4800</v>
       </c>
-      <c r="Q564" s="19" t="s">
+      <c r="Q564" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R564" s="72" t="s">
+      <c r="R564" s="65" t="s">
         <v>2122</v>
       </c>
-      <c r="W564" s="19" t="s">
+      <c r="W564" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X564" s="19">
+      <c r="X564" s="5">
         <v>20</v>
       </c>
-      <c r="Y564" s="19">
+      <c r="Y564" s="5">
         <v>1613469600</v>
       </c>
-      <c r="Z564" s="19">
+      <c r="Z564" s="5">
         <v>1613484000</v>
       </c>
-      <c r="AE564" s="19">
+      <c r="AE564" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF564" s="19">
+      <c r="AF564" s="5">
         <v>7</v>
       </c>
-      <c r="AH564" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI564" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="565" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH564" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI564" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A565" s="5">
         <v>564</v>
       </c>
-      <c r="B565" s="19">
+      <c r="B565" s="5">
         <v>10481</v>
       </c>
-      <c r="F565" s="19">
-        <v>1</v>
-      </c>
-      <c r="G565" s="19" t="s">
+      <c r="F565" s="5">
+        <v>1</v>
+      </c>
+      <c r="G565" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I565" s="19" t="s">
+      <c r="I565" s="5" t="s">
         <v>2111</v>
       </c>
-      <c r="J565" s="19" t="s">
+      <c r="J565" s="5" t="s">
         <v>2120</v>
       </c>
-      <c r="L565" s="19">
+      <c r="L565" s="5">
         <v>-25</v>
       </c>
-      <c r="M565" s="19">
-        <v>0</v>
-      </c>
-      <c r="N565" s="19">
-        <v>0</v>
-      </c>
-      <c r="O565" s="19" t="s">
+      <c r="M565" s="5">
+        <v>0</v>
+      </c>
+      <c r="N565" s="5">
+        <v>0</v>
+      </c>
+      <c r="O565" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P565" s="19">
+      <c r="P565" s="5">
         <v>19800</v>
       </c>
-      <c r="Q565" s="19" t="s">
+      <c r="Q565" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R565" s="72" t="s">
+      <c r="R565" s="65" t="s">
         <v>2124</v>
       </c>
-      <c r="W565" s="19" t="s">
+      <c r="W565" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X565" s="19">
+      <c r="X565" s="5">
         <v>10</v>
       </c>
-      <c r="Y565" s="19">
+      <c r="Y565" s="5">
         <v>1613469600</v>
       </c>
-      <c r="Z565" s="19">
+      <c r="Z565" s="5">
         <v>1613484000</v>
       </c>
-      <c r="AE565" s="19">
+      <c r="AE565" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF565" s="19">
+      <c r="AF565" s="5">
         <v>7</v>
       </c>
-      <c r="AH565" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI565" s="19">
+      <c r="AH565" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI565" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A566" s="5">
+        <v>565</v>
+      </c>
+      <c r="B566" s="5">
+        <v>10482</v>
+      </c>
+      <c r="F566" s="22">
+        <v>0</v>
+      </c>
+      <c r="G566" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I566" s="22" t="s">
+        <v>2126</v>
+      </c>
+      <c r="J566" s="22" t="s">
+        <v>1933</v>
+      </c>
+      <c r="L566" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M566" s="22">
+        <v>0</v>
+      </c>
+      <c r="N566" s="22">
+        <v>0</v>
+      </c>
+      <c r="O566" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="P566" s="22">
+        <v>49800</v>
+      </c>
+      <c r="Q566" s="22" t="s">
+        <v>2127</v>
+      </c>
+      <c r="R566" s="66" t="s">
+        <v>2128</v>
+      </c>
+      <c r="W566" s="22" t="s">
+        <v>1355</v>
+      </c>
+      <c r="X566" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y566" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z566" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA566" s="22">
+        <v>68</v>
+      </c>
+      <c r="AH566" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI566" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL566" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM566" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>566</v>
+      </c>
+      <c r="B567" s="5">
+        <v>10483</v>
+      </c>
+      <c r="F567" s="22">
+        <v>0</v>
+      </c>
+      <c r="G567" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I567" s="22" t="s">
+        <v>2125</v>
+      </c>
+      <c r="J567" s="22" t="s">
+        <v>2129</v>
+      </c>
+      <c r="L567" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M567" s="22">
+        <v>0</v>
+      </c>
+      <c r="N567" s="22">
+        <v>0</v>
+      </c>
+      <c r="O567" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="P567" s="22">
+        <v>19800</v>
+      </c>
+      <c r="Q567" s="22" t="s">
+        <v>2127</v>
+      </c>
+      <c r="R567" s="66" t="s">
+        <v>1939</v>
+      </c>
+      <c r="W567" s="22" t="s">
+        <v>1355</v>
+      </c>
+      <c r="X567" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y567" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z567" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA567" s="22">
+        <v>68</v>
+      </c>
+      <c r="AH567" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI567" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL567" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM567" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A568" s="5">
+        <v>567</v>
+      </c>
+      <c r="B568" s="5">
+        <v>10484</v>
+      </c>
+      <c r="F568" s="22">
+        <v>0</v>
+      </c>
+      <c r="G568" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I568" s="22" t="s">
+        <v>2125</v>
+      </c>
+      <c r="J568" s="22" t="s">
+        <v>1940</v>
+      </c>
+      <c r="L568" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M568" s="22">
+        <v>0</v>
+      </c>
+      <c r="N568" s="22">
+        <v>0</v>
+      </c>
+      <c r="O568" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="P568" s="22">
+        <v>9800</v>
+      </c>
+      <c r="Q568" s="22" t="s">
+        <v>2130</v>
+      </c>
+      <c r="R568" s="66" t="s">
+        <v>1942</v>
+      </c>
+      <c r="W568" s="22" t="s">
+        <v>1355</v>
+      </c>
+      <c r="X568" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y568" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z568" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA568" s="22">
+        <v>68</v>
+      </c>
+      <c r="AH568" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI568" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL568" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM568" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A569" s="5">
+        <v>568</v>
+      </c>
+      <c r="B569" s="5">
+        <v>10485</v>
+      </c>
+      <c r="F569" s="22">
+        <v>0</v>
+      </c>
+      <c r="G569" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I569" s="22" t="s">
+        <v>2125</v>
+      </c>
+      <c r="J569" s="22" t="s">
+        <v>2131</v>
+      </c>
+      <c r="L569" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M569" s="22">
+        <v>0</v>
+      </c>
+      <c r="N569" s="22">
+        <v>0</v>
+      </c>
+      <c r="O569" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="P569" s="22">
+        <v>4800</v>
+      </c>
+      <c r="Q569" s="22" t="s">
+        <v>2132</v>
+      </c>
+      <c r="R569" s="66" t="s">
+        <v>1945</v>
+      </c>
+      <c r="W569" s="22" t="s">
+        <v>1355</v>
+      </c>
+      <c r="X569" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y569" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z569" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA569" s="22">
+        <v>68</v>
+      </c>
+      <c r="AH569" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI569" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL569" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM569" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A570" s="5">
+        <v>569</v>
+      </c>
+      <c r="B570" s="5">
+        <v>10486</v>
+      </c>
+      <c r="F570" s="22">
+        <v>0</v>
+      </c>
+      <c r="G570" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I570" s="22" t="s">
+        <v>2133</v>
+      </c>
+      <c r="J570" s="22" t="s">
+        <v>1947</v>
+      </c>
+      <c r="L570" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M570" s="22">
+        <v>0</v>
+      </c>
+      <c r="N570" s="22">
+        <v>0</v>
+      </c>
+      <c r="O570" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="P570" s="22">
+        <v>49800</v>
+      </c>
+      <c r="Q570" s="22" t="s">
+        <v>2134</v>
+      </c>
+      <c r="R570" s="66" t="s">
+        <v>1949</v>
+      </c>
+      <c r="W570" s="22" t="s">
+        <v>2135</v>
+      </c>
+      <c r="X570" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y570" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z570" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA570" s="22">
+        <v>69</v>
+      </c>
+      <c r="AH570" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI570" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL570" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM570" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A571" s="5">
+        <v>570</v>
+      </c>
+      <c r="B571" s="5">
+        <v>10487</v>
+      </c>
+      <c r="F571" s="22">
+        <v>0</v>
+      </c>
+      <c r="G571" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I571" s="22" t="s">
+        <v>2133</v>
+      </c>
+      <c r="J571" s="22" t="s">
+        <v>1950</v>
+      </c>
+      <c r="L571" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M571" s="22">
+        <v>0</v>
+      </c>
+      <c r="N571" s="22">
+        <v>0</v>
+      </c>
+      <c r="O571" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="P571" s="22">
+        <v>19800</v>
+      </c>
+      <c r="Q571" s="22" t="s">
+        <v>2134</v>
+      </c>
+      <c r="R571" s="66" t="s">
+        <v>2136</v>
+      </c>
+      <c r="W571" s="22" t="s">
+        <v>1355</v>
+      </c>
+      <c r="X571" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y571" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z571" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA571" s="22">
+        <v>69</v>
+      </c>
+      <c r="AH571" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI571" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL571" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM571" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A572" s="5">
+        <v>571</v>
+      </c>
+      <c r="B572" s="5">
+        <v>10488</v>
+      </c>
+      <c r="F572" s="22">
+        <v>0</v>
+      </c>
+      <c r="G572" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I572" s="22" t="s">
+        <v>2133</v>
+      </c>
+      <c r="J572" s="22" t="s">
+        <v>1953</v>
+      </c>
+      <c r="L572" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M572" s="22">
+        <v>0</v>
+      </c>
+      <c r="N572" s="22">
+        <v>0</v>
+      </c>
+      <c r="O572" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="P572" s="22">
+        <v>9800</v>
+      </c>
+      <c r="Q572" s="22" t="s">
+        <v>2137</v>
+      </c>
+      <c r="R572" s="66" t="s">
+        <v>1955</v>
+      </c>
+      <c r="W572" s="22" t="s">
+        <v>2138</v>
+      </c>
+      <c r="X572" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y572" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z572" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA572" s="22">
+        <v>69</v>
+      </c>
+      <c r="AH572" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI572" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL572" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM572" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A573" s="5">
+        <v>572</v>
+      </c>
+      <c r="B573" s="5">
+        <v>10489</v>
+      </c>
+      <c r="F573" s="22">
+        <v>0</v>
+      </c>
+      <c r="G573" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I573" s="22" t="s">
+        <v>2133</v>
+      </c>
+      <c r="J573" s="22" t="s">
+        <v>2139</v>
+      </c>
+      <c r="L573" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M573" s="22">
+        <v>0</v>
+      </c>
+      <c r="N573" s="22">
+        <v>0</v>
+      </c>
+      <c r="O573" s="22" t="s">
+        <v>2140</v>
+      </c>
+      <c r="P573" s="22">
+        <v>4800</v>
+      </c>
+      <c r="Q573" s="22" t="s">
+        <v>2141</v>
+      </c>
+      <c r="R573" s="66" t="s">
+        <v>2142</v>
+      </c>
+      <c r="W573" s="22" t="s">
+        <v>2138</v>
+      </c>
+      <c r="X573" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y573" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z573" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA573" s="22">
+        <v>69</v>
+      </c>
+      <c r="AH573" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI573" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL573" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM573" s="22">
         <v>1</v>
       </c>
     </row>

--- a/config_3.2/shoping_config_xiaomi.xlsx
+++ b/config_3.2/shoping_config_xiaomi.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4632" uniqueCount="2143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4669" uniqueCount="2173">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -9083,6 +9083,114 @@
   </si>
   <si>
     <t>4880000,4,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coupon_gift_id|优惠券礼包ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满50抵扣5元</t>
+  </si>
+  <si>
+    <t>"500万金币",</t>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","obj_5_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满98抵扣10元</t>
+  </si>
+  <si>
+    <t>"980万金币",</t>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","obj_10_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满198抵扣20元</t>
+  </si>
+  <si>
+    <t>"1980万金币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_20_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满498抵扣50元</t>
+  </si>
+  <si>
+    <t>"4980万金币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_50_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满998抵扣100元</t>
+  </si>
+  <si>
+    <t>"9980万金币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_100_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满2498抵扣200元</t>
+  </si>
+  <si>
+    <t>"24980万金币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_200_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>249800000,-1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9265,7 +9373,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9466,6 +9574,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9928,10 +10039,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF32"/>
+  <dimension ref="A1:AG32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9939,32 +10050,32 @@
     <col min="1" max="1" width="8.75" style="2"/>
     <col min="2" max="4" width="19.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="26.125" style="23" customWidth="1"/>
-    <col min="6" max="7" width="19.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="40.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="30.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="30.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="30.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="30.125" style="2" customWidth="1"/>
-    <col min="15" max="17" width="14.875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="19.375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="8.75" style="2"/>
-    <col min="20" max="20" width="28.75" style="2" customWidth="1"/>
-    <col min="21" max="21" width="16.875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="24.375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="16.75" style="2" customWidth="1"/>
-    <col min="24" max="24" width="15.625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="19.25" style="2" customWidth="1"/>
-    <col min="26" max="26" width="13" style="2" customWidth="1"/>
-    <col min="27" max="27" width="19.25" style="2" customWidth="1"/>
-    <col min="28" max="28" width="13" style="2" customWidth="1"/>
-    <col min="29" max="30" width="12.125" style="2" customWidth="1"/>
-    <col min="31" max="32" width="21.375" style="2" customWidth="1"/>
-    <col min="33" max="16384" width="8.75" style="2"/>
+    <col min="6" max="8" width="19.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="40.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="30.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="30.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="30.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="30.125" style="2" customWidth="1"/>
+    <col min="16" max="18" width="14.875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="19.375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="8.75" style="2"/>
+    <col min="21" max="21" width="28.75" style="2" customWidth="1"/>
+    <col min="22" max="22" width="16.875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="24.375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="16.75" style="2" customWidth="1"/>
+    <col min="25" max="25" width="15.625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="19.25" style="2" customWidth="1"/>
+    <col min="27" max="27" width="13" style="2" customWidth="1"/>
+    <col min="28" max="28" width="19.25" style="2" customWidth="1"/>
+    <col min="29" max="29" width="13" style="2" customWidth="1"/>
+    <col min="30" max="31" width="12.125" style="2" customWidth="1"/>
+    <col min="32" max="33" width="21.375" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9984,85 +10095,88 @@
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>2143</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -10079,72 +10193,73 @@
       <c r="F2" s="2">
         <v>10330</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="11">
+      <c r="I2" s="11">
         <v>600</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>1013</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="M2" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="45">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1</v>
-      </c>
-      <c r="P2" s="11">
-        <v>0</v>
+      <c r="O2" s="45">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
       </c>
       <c r="Q2" s="11">
         <v>0</v>
       </c>
-      <c r="R2" s="2">
-        <v>1</v>
+      <c r="R2" s="11">
+        <v>0</v>
       </c>
       <c r="S2" s="2">
         <v>1</v>
       </c>
-      <c r="T2" s="33" t="s">
+      <c r="T2" s="2">
+        <v>1</v>
+      </c>
+      <c r="U2" s="33" t="s">
         <v>1033</v>
       </c>
-      <c r="U2" s="33" t="s">
+      <c r="V2" s="33" t="s">
         <v>1014</v>
       </c>
-      <c r="V2" s="11"/>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="11"/>
+      <c r="X2" s="33" t="s">
         <v>1034</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="Y2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="AC2" s="11">
-        <v>1</v>
-      </c>
       <c r="AD2" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -10161,72 +10276,73 @@
       <c r="F3" s="2">
         <v>85</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="11">
+      <c r="I3" s="11">
         <v>1500</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>1015</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="M3" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="45">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2">
+      <c r="O3" s="45">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
         <v>2</v>
       </c>
-      <c r="P3" s="11">
-        <v>0</v>
-      </c>
       <c r="Q3" s="11">
         <v>0</v>
       </c>
-      <c r="R3" s="2">
-        <v>1</v>
+      <c r="R3" s="11">
+        <v>0</v>
       </c>
       <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2">
         <v>2</v>
       </c>
-      <c r="T3" s="33" t="s">
+      <c r="U3" s="33" t="s">
         <v>1036</v>
       </c>
-      <c r="U3" s="33" t="s">
+      <c r="V3" s="33" t="s">
         <v>1016</v>
       </c>
-      <c r="V3" s="11"/>
-      <c r="W3" s="33" t="s">
+      <c r="W3" s="11"/>
+      <c r="X3" s="33" t="s">
         <v>1034</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="Y3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC3" s="11">
-        <v>1</v>
-      </c>
       <c r="AD3" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -10243,72 +10359,73 @@
       <c r="F4" s="2">
         <v>86</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="11">
+      <c r="I4" s="11">
         <v>3000</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>1017</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="M4" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="N4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="45">
-        <v>1</v>
-      </c>
-      <c r="O4" s="2">
+      <c r="O4" s="45">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
         <v>3</v>
       </c>
-      <c r="P4" s="11">
-        <v>0</v>
-      </c>
       <c r="Q4" s="11">
         <v>0</v>
       </c>
-      <c r="R4" s="2">
-        <v>1</v>
+      <c r="R4" s="11">
+        <v>0</v>
       </c>
       <c r="S4" s="2">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2">
         <v>3</v>
       </c>
-      <c r="T4" s="33" t="s">
+      <c r="U4" s="33" t="s">
         <v>1037</v>
       </c>
-      <c r="U4" s="33" t="s">
+      <c r="V4" s="33" t="s">
         <v>1038</v>
       </c>
-      <c r="V4" s="11"/>
-      <c r="W4" s="33" t="s">
+      <c r="W4" s="11"/>
+      <c r="X4" s="33" t="s">
         <v>1034</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="Y4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC4" s="11">
-        <v>1</v>
-      </c>
       <c r="AD4" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -10325,72 +10442,75 @@
       <c r="F5" s="2">
         <v>87</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="2">
+        <v>10490</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="11">
+      <c r="I5" s="11">
         <v>5000</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>1018</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="M5" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="N5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="45">
-        <v>1</v>
-      </c>
-      <c r="O5" s="2">
+      <c r="O5" s="45">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
         <v>4</v>
       </c>
-      <c r="P5" s="11">
-        <v>0</v>
-      </c>
       <c r="Q5" s="11">
         <v>0</v>
       </c>
-      <c r="R5" s="2">
-        <v>1</v>
+      <c r="R5" s="11">
+        <v>0</v>
       </c>
       <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
         <v>4</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="U5" s="33" t="s">
         <v>1019</v>
       </c>
-      <c r="U5" s="33" t="s">
+      <c r="V5" s="33" t="s">
         <v>1039</v>
       </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="33" t="s">
+      <c r="W5" s="11"/>
+      <c r="X5" s="33" t="s">
         <v>1034</v>
       </c>
-      <c r="X5" s="11" t="s">
+      <c r="Y5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="AA5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC5" s="11">
-        <v>1</v>
-      </c>
       <c r="AD5" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -10407,72 +10527,75 @@
       <c r="F6" s="2">
         <v>88</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="2">
+        <v>10491</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="11">
+      <c r="I6" s="11">
         <v>9800</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="J6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="K6" s="11" t="s">
         <v>1020</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="44" t="s">
+      <c r="M6" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="N6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="45">
-        <v>1</v>
-      </c>
-      <c r="O6" s="2">
+      <c r="O6" s="45">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
         <v>5</v>
       </c>
-      <c r="P6" s="11">
-        <v>0</v>
-      </c>
       <c r="Q6" s="11">
         <v>0</v>
       </c>
-      <c r="R6" s="2">
-        <v>1</v>
+      <c r="R6" s="11">
+        <v>0</v>
       </c>
       <c r="S6" s="2">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2">
         <v>5</v>
-      </c>
-      <c r="T6" s="33" t="s">
-        <v>1040</v>
       </c>
       <c r="U6" s="33" t="s">
         <v>1040</v>
       </c>
-      <c r="V6" s="11"/>
-      <c r="W6" s="33" t="s">
+      <c r="V6" s="33" t="s">
+        <v>1040</v>
+      </c>
+      <c r="W6" s="11"/>
+      <c r="X6" s="33" t="s">
         <v>1034</v>
       </c>
-      <c r="X6" s="11" t="s">
+      <c r="Y6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="Y6" s="2" t="s">
+      <c r="Z6" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="AA6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC6" s="11">
-        <v>1</v>
-      </c>
       <c r="AD6" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -10489,72 +10612,75 @@
       <c r="F7" s="2">
         <v>89</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="2">
+        <v>10493</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="11">
+      <c r="I7" s="11">
         <v>49800</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>1021</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="L7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="44" t="s">
+      <c r="M7" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="N7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="11">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2">
+      <c r="O7" s="11">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
         <v>7</v>
       </c>
-      <c r="P7" s="11">
-        <v>0</v>
-      </c>
       <c r="Q7" s="11">
         <v>0</v>
       </c>
-      <c r="R7" s="2">
-        <v>1</v>
+      <c r="R7" s="11">
+        <v>0</v>
       </c>
       <c r="S7" s="2">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2">
         <v>7</v>
       </c>
-      <c r="T7" s="33" t="s">
+      <c r="U7" s="33" t="s">
         <v>1022</v>
       </c>
-      <c r="U7" s="33" t="s">
+      <c r="V7" s="33" t="s">
         <v>1041</v>
       </c>
-      <c r="V7" s="11"/>
-      <c r="W7" s="33" t="s">
+      <c r="W7" s="11"/>
+      <c r="X7" s="33" t="s">
         <v>1034</v>
       </c>
-      <c r="X7" s="11" t="s">
+      <c r="Y7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Z7" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="AA7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC7" s="11">
-        <v>1</v>
-      </c>
       <c r="AD7" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -10571,72 +10697,73 @@
       <c r="F8" s="2">
         <v>109</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="11">
+      <c r="I8" s="11">
         <v>100000</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="K8" s="11" t="s">
         <v>1023</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="L8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="44" t="s">
+      <c r="M8" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="N8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="45">
-        <v>1</v>
-      </c>
-      <c r="O8" s="2">
+      <c r="O8" s="45">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
         <v>9</v>
       </c>
-      <c r="P8" s="11">
-        <v>0</v>
-      </c>
       <c r="Q8" s="11">
         <v>0</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="11">
         <v>0</v>
       </c>
       <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
         <v>8</v>
       </c>
-      <c r="T8" s="33" t="s">
+      <c r="U8" s="33" t="s">
         <v>1042</v>
       </c>
-      <c r="U8" s="33" t="s">
+      <c r="V8" s="33" t="s">
         <v>1043</v>
       </c>
-      <c r="V8" s="11"/>
-      <c r="W8" s="33" t="s">
+      <c r="W8" s="11"/>
+      <c r="X8" s="33" t="s">
         <v>1034</v>
       </c>
-      <c r="X8" s="11" t="s">
+      <c r="Y8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y8" s="2" t="s">
+      <c r="Z8" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="Z8" s="2" t="s">
+      <c r="AA8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC8" s="11">
-        <v>1</v>
-      </c>
       <c r="AD8" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -10653,71 +10780,74 @@
       <c r="F9" s="2">
         <v>10044</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="2">
+        <v>10494</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="11">
+      <c r="I9" s="11">
         <v>99800</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="K9" s="33" t="s">
         <v>1030</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="L9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="44" t="s">
+      <c r="M9" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="N9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="45">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2">
+      <c r="O9" s="45">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
         <v>8</v>
       </c>
-      <c r="P9" s="11">
-        <v>0</v>
-      </c>
       <c r="Q9" s="11">
         <v>0</v>
       </c>
-      <c r="R9" s="2">
-        <v>1</v>
+      <c r="R9" s="11">
+        <v>0</v>
       </c>
       <c r="S9" s="2">
+        <v>1</v>
+      </c>
+      <c r="T9" s="2">
         <v>9</v>
-      </c>
-      <c r="T9" s="33" t="s">
-        <v>1044</v>
       </c>
       <c r="U9" s="33" t="s">
         <v>1044</v>
       </c>
-      <c r="W9" s="33" t="s">
+      <c r="V9" s="33" t="s">
+        <v>1044</v>
+      </c>
+      <c r="X9" s="33" t="s">
         <v>1045</v>
       </c>
-      <c r="X9" s="11" t="s">
+      <c r="Y9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="Y9" s="2" t="s">
+      <c r="Z9" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="Z9" s="2" t="s">
+      <c r="AA9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC9" s="11">
-        <v>1</v>
-      </c>
       <c r="AD9" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -10734,71 +10864,74 @@
       <c r="F10" s="11">
         <v>10045</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="11">
+        <v>10495</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="11">
+      <c r="I10" s="11">
         <v>249800</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="K10" s="33" t="s">
         <v>1046</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="L10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="44" t="s">
+      <c r="M10" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="N10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N10" s="45">
-        <v>1</v>
-      </c>
-      <c r="O10" s="11">
+      <c r="O10" s="45">
+        <v>1</v>
+      </c>
+      <c r="P10" s="11">
         <v>10</v>
       </c>
-      <c r="P10" s="11">
-        <v>0</v>
-      </c>
       <c r="Q10" s="11">
         <v>0</v>
       </c>
       <c r="R10" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="11">
+        <v>1</v>
+      </c>
+      <c r="T10" s="11">
         <v>10</v>
-      </c>
-      <c r="T10" s="33" t="s">
-        <v>1047</v>
       </c>
       <c r="U10" s="33" t="s">
         <v>1047</v>
       </c>
-      <c r="W10" s="33" t="s">
+      <c r="V10" s="33" t="s">
+        <v>1047</v>
+      </c>
+      <c r="X10" s="33" t="s">
         <v>1045</v>
       </c>
-      <c r="X10" s="11" t="s">
+      <c r="Y10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="Y10" s="11" t="s">
+      <c r="Z10" s="11" t="s">
         <v>633</v>
       </c>
-      <c r="Z10" s="11" t="s">
+      <c r="AA10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC10" s="11">
-        <v>1</v>
-      </c>
       <c r="AD10" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -10817,71 +10950,72 @@
       <c r="F11" s="11">
         <v>90</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>600</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>1025</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="44" t="s">
+      <c r="M11" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="2">
-        <v>1</v>
-      </c>
-      <c r="O11" s="11">
-        <v>1</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0</v>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="11">
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
       </c>
-      <c r="R11" s="11">
-        <v>1</v>
+      <c r="R11" s="2">
+        <v>0</v>
       </c>
       <c r="S11" s="11">
         <v>1</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="T11" s="11">
+        <v>1</v>
+      </c>
+      <c r="U11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="2">
+      <c r="V11" s="2">
         <v>400</v>
       </c>
-      <c r="W11" s="2" t="s">
+      <c r="X11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X11" s="2" t="s">
+      <c r="Y11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Y11" s="33" t="s">
+      <c r="Z11" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="Z11" s="11" t="s">
+      <c r="AA11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC11" s="2">
-        <v>1</v>
-      </c>
       <c r="AD11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -10898,71 +11032,72 @@
         <v>61</v>
       </c>
       <c r="F12" s="11"/>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="11"/>
+      <c r="H12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>3000</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L12" s="44" t="s">
+      <c r="M12" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N12" s="2">
-        <v>1</v>
-      </c>
-      <c r="O12" s="11">
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="11">
         <v>2</v>
       </c>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
       <c r="Q12" s="2">
         <v>0</v>
       </c>
-      <c r="R12" s="11">
-        <v>1</v>
+      <c r="R12" s="2">
+        <v>0</v>
       </c>
       <c r="S12" s="11">
+        <v>1</v>
+      </c>
+      <c r="T12" s="11">
         <v>2</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="U12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="U12" s="2">
+      <c r="V12" s="2">
         <v>2000</v>
       </c>
-      <c r="W12" s="2" t="s">
+      <c r="X12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X12" s="2" t="s">
+      <c r="Y12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Y12" s="11" t="s">
+      <c r="Z12" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="Z12" s="11" t="s">
+      <c r="AA12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC12" s="2">
-        <v>1</v>
-      </c>
       <c r="AD12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -10979,71 +11114,72 @@
         <v>64</v>
       </c>
       <c r="F13" s="11"/>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="11"/>
+      <c r="H13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>9800</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>1027</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="44" t="s">
+      <c r="M13" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="2">
-        <v>1</v>
-      </c>
-      <c r="O13" s="11">
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="11">
         <v>3</v>
       </c>
-      <c r="P13" s="2">
-        <v>0</v>
-      </c>
       <c r="Q13" s="2">
         <v>0</v>
       </c>
-      <c r="R13" s="11">
-        <v>1</v>
+      <c r="R13" s="2">
+        <v>0</v>
       </c>
       <c r="S13" s="11">
+        <v>1</v>
+      </c>
+      <c r="T13" s="11">
         <v>3</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="U13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="U13" s="2">
+      <c r="V13" s="2">
         <v>6700</v>
       </c>
-      <c r="W13" s="2" t="s">
+      <c r="X13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X13" s="2" t="s">
+      <c r="Y13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Y13" s="11" t="s">
+      <c r="Z13" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="Z13" s="11" t="s">
+      <c r="AA13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC13" s="2">
-        <v>1</v>
-      </c>
       <c r="AD13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -11060,71 +11196,72 @@
         <v>67</v>
       </c>
       <c r="F14" s="11"/>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="11"/>
+      <c r="H14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>19800</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="44" t="s">
+      <c r="M14" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="2">
-        <v>1</v>
-      </c>
-      <c r="O14" s="11">
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="11">
         <v>4</v>
       </c>
-      <c r="P14" s="2">
-        <v>0</v>
-      </c>
       <c r="Q14" s="2">
         <v>0</v>
       </c>
-      <c r="R14" s="11">
-        <v>1</v>
+      <c r="R14" s="2">
+        <v>0</v>
       </c>
       <c r="S14" s="11">
+        <v>1</v>
+      </c>
+      <c r="T14" s="11">
         <v>4</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="U14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="U14" s="2" t="s">
+      <c r="V14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="W14" s="2" t="s">
+      <c r="X14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X14" s="2" t="s">
+      <c r="Y14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Y14" s="11" t="s">
+      <c r="Z14" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="Z14" s="11" t="s">
+      <c r="AA14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC14" s="2">
-        <v>1</v>
-      </c>
       <c r="AD14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -11141,71 +11278,72 @@
         <v>71</v>
       </c>
       <c r="F15" s="11"/>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="11"/>
+      <c r="H15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>29800</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="44" t="s">
+      <c r="M15" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N15" s="2">
-        <v>1</v>
-      </c>
-      <c r="O15" s="11">
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="11">
         <v>5</v>
       </c>
-      <c r="P15" s="2">
-        <v>0</v>
-      </c>
       <c r="Q15" s="2">
         <v>0</v>
       </c>
-      <c r="R15" s="11">
-        <v>1</v>
+      <c r="R15" s="2">
+        <v>0</v>
       </c>
       <c r="S15" s="11">
+        <v>1</v>
+      </c>
+      <c r="T15" s="11">
         <v>5</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="U15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U15" s="2" t="s">
+      <c r="V15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="W15" s="2" t="s">
+      <c r="X15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X15" s="2" t="s">
+      <c r="Y15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y15" s="11" t="s">
+      <c r="Z15" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="Z15" s="11" t="s">
+      <c r="AA15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC15" s="2">
-        <v>1</v>
-      </c>
       <c r="AD15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -11222,71 +11360,72 @@
         <v>75</v>
       </c>
       <c r="F16" s="11"/>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="11"/>
+      <c r="H16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>100</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>1031</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N16" s="2">
-        <v>1</v>
-      </c>
-      <c r="O16" s="11">
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="11">
         <v>11</v>
       </c>
-      <c r="P16" s="2">
-        <v>0</v>
-      </c>
       <c r="Q16" s="2">
         <v>0</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="2">
         <v>0</v>
       </c>
       <c r="S16" s="11">
         <v>0</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="T16" s="11">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="U16" s="2">
+      <c r="V16" s="2">
         <v>66</v>
       </c>
-      <c r="W16" s="2" t="s">
+      <c r="X16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X16" s="2" t="s">
+      <c r="Y16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Y16" s="33" t="s">
+      <c r="Z16" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="Z16" s="11" t="s">
+      <c r="AA16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC16" s="2">
-        <v>1</v>
-      </c>
       <c r="AD16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -11296,71 +11435,72 @@
       <c r="C17" s="11"/>
       <c r="E17" s="46"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="11"/>
+      <c r="H17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="2">
         <v>600</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J17" s="33" t="s">
+      <c r="K17" s="33" t="s">
         <v>1049</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N17" s="2">
-        <v>1</v>
-      </c>
-      <c r="O17" s="11">
-        <v>1</v>
-      </c>
-      <c r="P17" s="2">
+      <c r="O17" s="2">
+        <v>1</v>
+      </c>
+      <c r="P17" s="11">
         <v>1</v>
       </c>
       <c r="Q17" s="2">
         <v>1</v>
       </c>
-      <c r="R17" s="11">
-        <v>0</v>
+      <c r="R17" s="2">
+        <v>1</v>
       </c>
       <c r="S17" s="11">
-        <v>1</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>1836</v>
+        <v>0</v>
+      </c>
+      <c r="T17" s="11">
+        <v>1</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>1836</v>
       </c>
-      <c r="W17" s="2" t="s">
+      <c r="V17" s="3" t="s">
+        <v>1836</v>
+      </c>
+      <c r="X17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X17" s="2" t="s">
+      <c r="Y17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Y17" s="33" t="s">
+      <c r="Z17" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="Z17" s="11" t="s">
+      <c r="AA17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC17" s="2">
-        <v>1</v>
-      </c>
       <c r="AD17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -11370,71 +11510,72 @@
       <c r="C18" s="11"/>
       <c r="E18" s="46"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="11"/>
+      <c r="H18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <v>1500</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J18" s="33" t="s">
+      <c r="K18" s="33" t="s">
         <v>1050</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N18" s="2">
-        <v>1</v>
-      </c>
-      <c r="O18" s="11">
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="11">
         <v>2</v>
       </c>
-      <c r="P18" s="2">
-        <v>0</v>
-      </c>
       <c r="Q18" s="2">
         <v>0</v>
       </c>
-      <c r="R18" s="11">
+      <c r="R18" s="2">
         <v>0</v>
       </c>
       <c r="S18" s="11">
+        <v>0</v>
+      </c>
+      <c r="T18" s="11">
         <v>2</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>1874</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>1874</v>
       </c>
-      <c r="W18" s="2" t="s">
+      <c r="V18" s="3" t="s">
+        <v>1874</v>
+      </c>
+      <c r="X18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X18" s="2" t="s">
+      <c r="Y18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Y18" s="11" t="s">
+      <c r="Z18" s="11" t="s">
         <v>627</v>
       </c>
-      <c r="Z18" s="11" t="s">
+      <c r="AA18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC18" s="2">
-        <v>1</v>
-      </c>
       <c r="AD18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -11444,71 +11585,72 @@
       <c r="C19" s="11"/>
       <c r="E19" s="46"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="11"/>
+      <c r="H19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="2">
         <v>3000</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="33" t="s">
+      <c r="K19" s="33" t="s">
         <v>1051</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N19" s="2">
-        <v>1</v>
-      </c>
-      <c r="O19" s="11">
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="11">
         <v>3</v>
       </c>
-      <c r="P19" s="2">
-        <v>1</v>
-      </c>
       <c r="Q19" s="2">
         <v>1</v>
       </c>
-      <c r="R19" s="11">
-        <v>0</v>
+      <c r="R19" s="2">
+        <v>1</v>
       </c>
       <c r="S19" s="11">
+        <v>0</v>
+      </c>
+      <c r="T19" s="11">
         <v>3</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>1875</v>
       </c>
       <c r="U19" s="3" t="s">
         <v>1875</v>
       </c>
-      <c r="W19" s="2" t="s">
+      <c r="V19" s="3" t="s">
+        <v>1875</v>
+      </c>
+      <c r="X19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X19" s="2" t="s">
+      <c r="Y19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Y19" s="11" t="s">
+      <c r="Z19" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="Z19" s="11" t="s">
+      <c r="AA19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC19" s="2">
-        <v>1</v>
-      </c>
       <c r="AD19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -11518,71 +11660,72 @@
       <c r="C20" s="11"/>
       <c r="E20" s="46"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="11"/>
+      <c r="H20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="2">
         <v>5000</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J20" s="33" t="s">
+      <c r="K20" s="33" t="s">
         <v>1052</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N20" s="2">
-        <v>1</v>
-      </c>
-      <c r="O20" s="11">
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="11">
         <v>4</v>
       </c>
-      <c r="P20" s="2">
-        <v>1</v>
-      </c>
       <c r="Q20" s="2">
         <v>1</v>
       </c>
-      <c r="R20" s="11">
-        <v>0</v>
+      <c r="R20" s="2">
+        <v>1</v>
       </c>
       <c r="S20" s="11">
+        <v>0</v>
+      </c>
+      <c r="T20" s="11">
         <v>4</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>1876</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>1876</v>
       </c>
-      <c r="W20" s="2" t="s">
+      <c r="V20" s="3" t="s">
+        <v>1876</v>
+      </c>
+      <c r="X20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X20" s="2" t="s">
+      <c r="Y20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Y20" s="11" t="s">
+      <c r="Z20" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="Z20" s="11" t="s">
+      <c r="AA20" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC20" s="2">
-        <v>1</v>
-      </c>
       <c r="AD20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -11592,71 +11735,72 @@
       <c r="C21" s="11"/>
       <c r="E21" s="46"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="11"/>
+      <c r="H21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <v>9800</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="K21" s="33" t="s">
         <v>1053</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="2">
-        <v>1</v>
-      </c>
-      <c r="O21" s="11">
+      <c r="O21" s="2">
+        <v>1</v>
+      </c>
+      <c r="P21" s="11">
         <v>5</v>
       </c>
-      <c r="P21" s="2">
-        <v>1</v>
-      </c>
       <c r="Q21" s="2">
         <v>1</v>
       </c>
-      <c r="R21" s="11">
-        <v>0</v>
+      <c r="R21" s="2">
+        <v>1</v>
       </c>
       <c r="S21" s="11">
+        <v>0</v>
+      </c>
+      <c r="T21" s="11">
         <v>5</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>1877</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>1877</v>
       </c>
-      <c r="W21" s="2" t="s">
+      <c r="V21" s="3" t="s">
+        <v>1877</v>
+      </c>
+      <c r="X21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X21" s="2" t="s">
+      <c r="Y21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Y21" s="11" t="s">
+      <c r="Z21" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="Z21" s="11" t="s">
+      <c r="AA21" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC21" s="2">
-        <v>1</v>
-      </c>
       <c r="AD21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -11666,71 +11810,72 @@
       <c r="C22" s="11"/>
       <c r="E22" s="46"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="11"/>
+      <c r="H22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <v>49800</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="K22" s="33" t="s">
         <v>1054</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N22" s="2">
-        <v>1</v>
-      </c>
-      <c r="O22" s="11">
+      <c r="O22" s="2">
+        <v>1</v>
+      </c>
+      <c r="P22" s="11">
         <v>6</v>
       </c>
-      <c r="P22" s="2">
-        <v>1</v>
-      </c>
       <c r="Q22" s="2">
         <v>1</v>
       </c>
-      <c r="R22" s="11">
-        <v>0</v>
+      <c r="R22" s="2">
+        <v>1</v>
       </c>
       <c r="S22" s="11">
+        <v>0</v>
+      </c>
+      <c r="T22" s="11">
         <v>6</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>1878</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>1878</v>
       </c>
-      <c r="W22" s="2" t="s">
+      <c r="V22" s="3" t="s">
+        <v>1878</v>
+      </c>
+      <c r="X22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X22" s="2" t="s">
+      <c r="Y22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Y22" s="11" t="s">
+      <c r="Z22" s="11" t="s">
         <v>631</v>
       </c>
-      <c r="Z22" s="11" t="s">
+      <c r="AA22" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC22" s="2">
-        <v>1</v>
-      </c>
       <c r="AD22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -11740,71 +11885,72 @@
       <c r="C23" s="11"/>
       <c r="E23" s="46"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="11"/>
+      <c r="H23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="2">
+      <c r="I23" s="2">
         <v>100000</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J23" s="33" t="s">
+      <c r="K23" s="33" t="s">
         <v>1055</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N23" s="2">
-        <v>1</v>
-      </c>
-      <c r="O23" s="11">
+      <c r="O23" s="2">
+        <v>1</v>
+      </c>
+      <c r="P23" s="11">
         <v>7</v>
       </c>
-      <c r="P23" s="2">
-        <v>0</v>
-      </c>
       <c r="Q23" s="2">
         <v>0</v>
       </c>
-      <c r="R23" s="11">
+      <c r="R23" s="2">
         <v>0</v>
       </c>
       <c r="S23" s="11">
+        <v>0</v>
+      </c>
+      <c r="T23" s="11">
         <v>7</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>1879</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>1879</v>
       </c>
-      <c r="W23" s="2" t="s">
+      <c r="V23" s="3" t="s">
+        <v>1879</v>
+      </c>
+      <c r="X23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X23" s="2" t="s">
+      <c r="Y23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Y23" s="11" t="s">
+      <c r="Z23" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="Z23" s="11" t="s">
+      <c r="AA23" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC23" s="2">
-        <v>1</v>
-      </c>
       <c r="AD23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -11821,92 +11967,95 @@
       <c r="F24" s="11">
         <v>10189</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="11">
+        <v>10492</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>1056</v>
       </c>
-      <c r="H24" s="11">
+      <c r="I24" s="11">
         <v>19800</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>1057</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>1361</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>1058</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>1059</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="N24" s="2">
-        <v>1</v>
-      </c>
-      <c r="O24" s="11">
+      <c r="O24" s="2">
+        <v>1</v>
+      </c>
+      <c r="P24" s="11">
         <v>6</v>
       </c>
-      <c r="P24" s="2">
-        <v>0</v>
-      </c>
       <c r="Q24" s="2">
         <v>0</v>
       </c>
-      <c r="R24" s="11">
-        <v>1</v>
+      <c r="R24" s="2">
+        <v>0</v>
       </c>
       <c r="S24" s="11">
+        <v>1</v>
+      </c>
+      <c r="T24" s="11">
         <v>6</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>1061</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="W24" s="33" t="s">
+      <c r="V24" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="X24" s="33" t="s">
         <v>1024</v>
       </c>
-      <c r="X24" s="3" t="s">
+      <c r="Y24" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="Y24" s="11" t="s">
+      <c r="Z24" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="Z24" s="11" t="s">
+      <c r="AA24" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC24" s="2">
-        <v>1</v>
-      </c>
       <c r="AD24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E25" s="46"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E26" s="46"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E27" s="46"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E28" s="46"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E29" s="46"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E30" s="46"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E31" s="46"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E32" s="46"/>
     </row>
   </sheetData>
@@ -11919,13 +12068,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN573"/>
+  <dimension ref="A1:AN579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q540" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H504" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D569" sqref="D569"/>
+      <selection pane="bottomRight" activeCell="I520" sqref="I520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -45178,7 +45327,7 @@
         <v>10437</v>
       </c>
       <c r="F521" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G521" s="19" t="s">
         <v>1970</v>
@@ -45246,7 +45395,7 @@
         <v>10438</v>
       </c>
       <c r="F522" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G522" s="19" t="s">
         <v>1976</v>
@@ -45314,7 +45463,7 @@
         <v>10439</v>
       </c>
       <c r="F523" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G523" s="19" t="s">
         <v>1983</v>
@@ -45382,7 +45531,7 @@
         <v>10440</v>
       </c>
       <c r="F524" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G524" s="19" t="s">
         <v>1988</v>
@@ -45450,7 +45599,7 @@
         <v>10441</v>
       </c>
       <c r="F525" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G525" s="19" t="s">
         <v>1969</v>
@@ -45518,7 +45667,7 @@
         <v>10442</v>
       </c>
       <c r="F526" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G526" s="19" t="s">
         <v>1975</v>
@@ -45586,7 +45735,7 @@
         <v>10443</v>
       </c>
       <c r="F527" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G527" s="19" t="s">
         <v>1982</v>
@@ -45654,7 +45803,7 @@
         <v>10444</v>
       </c>
       <c r="F528" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G528" s="19" t="s">
         <v>1987</v>
@@ -45722,7 +45871,7 @@
         <v>10445</v>
       </c>
       <c r="F529" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G529" s="19" t="s">
         <v>2006</v>
@@ -45790,7 +45939,7 @@
         <v>10446</v>
       </c>
       <c r="F530" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G530" s="19" t="s">
         <v>1975</v>
@@ -45858,7 +46007,7 @@
         <v>10447</v>
       </c>
       <c r="F531" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G531" s="19" t="s">
         <v>1983</v>
@@ -45926,7 +46075,7 @@
         <v>10448</v>
       </c>
       <c r="F532" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G532" s="19" t="s">
         <v>2014</v>
@@ -45994,7 +46143,7 @@
         <v>10449</v>
       </c>
       <c r="F533" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G533" s="5" t="s">
         <v>2030</v>
@@ -46062,7 +46211,7 @@
         <v>10450</v>
       </c>
       <c r="F534" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G534" s="5" t="s">
         <v>2032</v>
@@ -46130,7 +46279,7 @@
         <v>10451</v>
       </c>
       <c r="F535" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G535" s="5" t="s">
         <v>2034</v>
@@ -46198,7 +46347,7 @@
         <v>10452</v>
       </c>
       <c r="F536" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G536" s="5" t="s">
         <v>2030</v>
@@ -46266,7 +46415,7 @@
         <v>10453</v>
       </c>
       <c r="F537" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G537" s="5" t="s">
         <v>2032</v>
@@ -46334,7 +46483,7 @@
         <v>10454</v>
       </c>
       <c r="F538" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G538" s="5" t="s">
         <v>2034</v>
@@ -46402,7 +46551,7 @@
         <v>10455</v>
       </c>
       <c r="F539" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G539" s="5" t="s">
         <v>2030</v>
@@ -46470,7 +46619,7 @@
         <v>10456</v>
       </c>
       <c r="F540" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G540" s="5" t="s">
         <v>2032</v>
@@ -46538,7 +46687,7 @@
         <v>10457</v>
       </c>
       <c r="F541" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G541" s="5" t="s">
         <v>2034</v>
@@ -46606,7 +46755,7 @@
         <v>10458</v>
       </c>
       <c r="F542" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G542" s="5" t="s">
         <v>2045</v>
@@ -46671,7 +46820,7 @@
         <v>10459</v>
       </c>
       <c r="F543" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G543" s="5" t="s">
         <v>2051</v>
@@ -46736,7 +46885,7 @@
         <v>10460</v>
       </c>
       <c r="F544" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G544" s="5" t="s">
         <v>2054</v>
@@ -46801,7 +46950,7 @@
         <v>10461</v>
       </c>
       <c r="F545" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G545" s="5" t="s">
         <v>2058</v>
@@ -46866,7 +47015,7 @@
         <v>10462</v>
       </c>
       <c r="F546" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G546" s="5" t="s">
         <v>2060</v>
@@ -46931,7 +47080,7 @@
         <v>10463</v>
       </c>
       <c r="F547" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G547" s="5" t="s">
         <v>2063</v>
@@ -46996,7 +47145,7 @@
         <v>10464</v>
       </c>
       <c r="F548" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G548" s="5" t="s">
         <v>2067</v>
@@ -47061,7 +47210,7 @@
         <v>10465</v>
       </c>
       <c r="F549" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G549" s="5" t="s">
         <v>2076</v>
@@ -47129,7 +47278,7 @@
         <v>10466</v>
       </c>
       <c r="F550" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G550" s="5" t="s">
         <v>2076</v>
@@ -47197,7 +47346,7 @@
         <v>10467</v>
       </c>
       <c r="F551" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G551" s="5" t="s">
         <v>2084</v>
@@ -47265,7 +47414,7 @@
         <v>10468</v>
       </c>
       <c r="F552" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G552" s="5" t="s">
         <v>2076</v>
@@ -47333,7 +47482,7 @@
         <v>10469</v>
       </c>
       <c r="F553" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G553" s="5" t="s">
         <v>2092</v>
@@ -47401,7 +47550,7 @@
         <v>10470</v>
       </c>
       <c r="F554" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G554" s="5" t="s">
         <v>2091</v>
@@ -47469,7 +47618,7 @@
         <v>10471</v>
       </c>
       <c r="F555" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G555" s="5" t="s">
         <v>2100</v>
@@ -47537,7 +47686,7 @@
         <v>10472</v>
       </c>
       <c r="F556" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G556" s="5" t="s">
         <v>2104</v>
@@ -47605,7 +47754,7 @@
         <v>10473</v>
       </c>
       <c r="F557" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G557" s="5" t="s">
         <v>2110</v>
@@ -47671,7 +47820,7 @@
         <v>10474</v>
       </c>
       <c r="F558" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G558" s="5" t="s">
         <v>518</v>
@@ -47737,7 +47886,7 @@
         <v>10475</v>
       </c>
       <c r="F559" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G559" s="5" t="s">
         <v>266</v>
@@ -47803,7 +47952,7 @@
         <v>10476</v>
       </c>
       <c r="F560" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G560" s="5" t="s">
         <v>2109</v>
@@ -47869,7 +48018,7 @@
         <v>10477</v>
       </c>
       <c r="F561" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G561" s="5" t="s">
         <v>519</v>
@@ -47935,7 +48084,7 @@
         <v>10478</v>
       </c>
       <c r="F562" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G562" s="5" t="s">
         <v>66</v>
@@ -48001,7 +48150,7 @@
         <v>10479</v>
       </c>
       <c r="F563" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G563" s="5" t="s">
         <v>2109</v>
@@ -48067,7 +48216,7 @@
         <v>10480</v>
       </c>
       <c r="F564" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G564" s="5" t="s">
         <v>266</v>
@@ -48133,7 +48282,7 @@
         <v>10481</v>
       </c>
       <c r="F565" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G565" s="5" t="s">
         <v>70</v>
@@ -48199,7 +48348,7 @@
         <v>10482</v>
       </c>
       <c r="F566" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G566" s="22" t="s">
         <v>122</v>
@@ -48267,7 +48416,7 @@
         <v>10483</v>
       </c>
       <c r="F567" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G567" s="22" t="s">
         <v>122</v>
@@ -48335,7 +48484,7 @@
         <v>10484</v>
       </c>
       <c r="F568" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G568" s="22" t="s">
         <v>122</v>
@@ -48403,7 +48552,7 @@
         <v>10485</v>
       </c>
       <c r="F569" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G569" s="22" t="s">
         <v>122</v>
@@ -48471,7 +48620,7 @@
         <v>10486</v>
       </c>
       <c r="F570" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G570" s="22" t="s">
         <v>122</v>
@@ -48539,7 +48688,7 @@
         <v>10487</v>
       </c>
       <c r="F571" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G571" s="22" t="s">
         <v>122</v>
@@ -48607,7 +48756,7 @@
         <v>10488</v>
       </c>
       <c r="F572" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G572" s="22" t="s">
         <v>122</v>
@@ -48675,7 +48824,7 @@
         <v>10489</v>
       </c>
       <c r="F573" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G573" s="22" t="s">
         <v>122</v>
@@ -48732,6 +48881,438 @@
         <v>1</v>
       </c>
       <c r="AM573" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A574" s="5">
+        <v>573</v>
+      </c>
+      <c r="B574" s="22">
+        <v>10490</v>
+      </c>
+      <c r="C574" s="22"/>
+      <c r="D574" s="22"/>
+      <c r="E574" s="22"/>
+      <c r="F574" s="22">
+        <v>1</v>
+      </c>
+      <c r="G574" s="22" t="s">
+        <v>2144</v>
+      </c>
+      <c r="H574" s="22"/>
+      <c r="I574" s="22" t="s">
+        <v>2145</v>
+      </c>
+      <c r="J574" s="22"/>
+      <c r="K574" s="22"/>
+      <c r="L574" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M574" s="22">
+        <v>0</v>
+      </c>
+      <c r="N574" s="22">
+        <v>0</v>
+      </c>
+      <c r="O574" s="22" t="s">
+        <v>2146</v>
+      </c>
+      <c r="P574" s="22">
+        <v>4500</v>
+      </c>
+      <c r="Q574" s="22" t="s">
+        <v>2147</v>
+      </c>
+      <c r="R574" s="67" t="s">
+        <v>2148</v>
+      </c>
+      <c r="S574" s="22"/>
+      <c r="T574" s="22"/>
+      <c r="U574" s="22"/>
+      <c r="V574" s="22"/>
+      <c r="W574" s="22" t="s">
+        <v>2150</v>
+      </c>
+      <c r="X574" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y574" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z574" s="22">
+        <v>2552233600</v>
+      </c>
+      <c r="AH574" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI574" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL574" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM574" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A575" s="5">
+        <v>574</v>
+      </c>
+      <c r="B575" s="22">
+        <v>10491</v>
+      </c>
+      <c r="C575" s="22"/>
+      <c r="D575" s="22"/>
+      <c r="E575" s="22"/>
+      <c r="F575" s="22">
+        <v>1</v>
+      </c>
+      <c r="G575" s="22" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H575" s="22"/>
+      <c r="I575" s="22" t="s">
+        <v>2152</v>
+      </c>
+      <c r="J575" s="22"/>
+      <c r="K575" s="22"/>
+      <c r="L575" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M575" s="22">
+        <v>0</v>
+      </c>
+      <c r="N575" s="22">
+        <v>0</v>
+      </c>
+      <c r="O575" s="22" t="s">
+        <v>2153</v>
+      </c>
+      <c r="P575" s="22">
+        <v>8800</v>
+      </c>
+      <c r="Q575" s="22" t="s">
+        <v>2154</v>
+      </c>
+      <c r="R575" s="67" t="s">
+        <v>2155</v>
+      </c>
+      <c r="S575" s="22"/>
+      <c r="T575" s="22"/>
+      <c r="U575" s="22"/>
+      <c r="V575" s="22"/>
+      <c r="W575" s="22" t="s">
+        <v>2156</v>
+      </c>
+      <c r="X575" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y575" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z575" s="22">
+        <v>2552233600</v>
+      </c>
+      <c r="AH575" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI575" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL575" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM575" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A576" s="5">
+        <v>575</v>
+      </c>
+      <c r="B576" s="22">
+        <v>10492</v>
+      </c>
+      <c r="C576" s="22"/>
+      <c r="D576" s="22"/>
+      <c r="E576" s="22"/>
+      <c r="F576" s="22">
+        <v>1</v>
+      </c>
+      <c r="G576" s="22" t="s">
+        <v>2157</v>
+      </c>
+      <c r="H576" s="22"/>
+      <c r="I576" s="22" t="s">
+        <v>2158</v>
+      </c>
+      <c r="J576" s="22"/>
+      <c r="K576" s="22"/>
+      <c r="L576" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M576" s="22">
+        <v>0</v>
+      </c>
+      <c r="N576" s="22">
+        <v>0</v>
+      </c>
+      <c r="O576" s="22" t="s">
+        <v>959</v>
+      </c>
+      <c r="P576" s="22">
+        <v>17800</v>
+      </c>
+      <c r="Q576" s="22" t="s">
+        <v>2159</v>
+      </c>
+      <c r="R576" s="67" t="s">
+        <v>2160</v>
+      </c>
+      <c r="S576" s="22"/>
+      <c r="T576" s="22"/>
+      <c r="U576" s="22"/>
+      <c r="V576" s="22"/>
+      <c r="W576" s="22" t="s">
+        <v>2149</v>
+      </c>
+      <c r="X576" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y576" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z576" s="22">
+        <v>2552233600</v>
+      </c>
+      <c r="AH576" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI576" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL576" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM576" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A577" s="5">
+        <v>576</v>
+      </c>
+      <c r="B577" s="22">
+        <v>10493</v>
+      </c>
+      <c r="C577" s="22"/>
+      <c r="D577" s="22"/>
+      <c r="E577" s="22"/>
+      <c r="F577" s="22">
+        <v>1</v>
+      </c>
+      <c r="G577" s="22" t="s">
+        <v>2161</v>
+      </c>
+      <c r="H577" s="22"/>
+      <c r="I577" s="22" t="s">
+        <v>2162</v>
+      </c>
+      <c r="J577" s="22"/>
+      <c r="K577" s="22"/>
+      <c r="L577" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M577" s="22">
+        <v>0</v>
+      </c>
+      <c r="N577" s="22">
+        <v>0</v>
+      </c>
+      <c r="O577" s="22" t="s">
+        <v>959</v>
+      </c>
+      <c r="P577" s="22">
+        <v>44800</v>
+      </c>
+      <c r="Q577" s="22" t="s">
+        <v>2163</v>
+      </c>
+      <c r="R577" s="67" t="s">
+        <v>2164</v>
+      </c>
+      <c r="S577" s="22"/>
+      <c r="T577" s="22"/>
+      <c r="U577" s="22"/>
+      <c r="V577" s="22"/>
+      <c r="W577" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="X577" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y577" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z577" s="22">
+        <v>2552233600</v>
+      </c>
+      <c r="AH577" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI577" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL577" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM577" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A578" s="5">
+        <v>577</v>
+      </c>
+      <c r="B578" s="22">
+        <v>10494</v>
+      </c>
+      <c r="C578" s="22"/>
+      <c r="D578" s="22"/>
+      <c r="E578" s="22"/>
+      <c r="F578" s="22">
+        <v>1</v>
+      </c>
+      <c r="G578" s="22" t="s">
+        <v>2165</v>
+      </c>
+      <c r="H578" s="22"/>
+      <c r="I578" s="22" t="s">
+        <v>2166</v>
+      </c>
+      <c r="J578" s="22"/>
+      <c r="K578" s="22"/>
+      <c r="L578" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M578" s="22">
+        <v>0</v>
+      </c>
+      <c r="N578" s="22">
+        <v>0</v>
+      </c>
+      <c r="O578" s="22" t="s">
+        <v>959</v>
+      </c>
+      <c r="P578" s="22">
+        <v>89800</v>
+      </c>
+      <c r="Q578" s="22" t="s">
+        <v>2167</v>
+      </c>
+      <c r="R578" s="67" t="s">
+        <v>2168</v>
+      </c>
+      <c r="S578" s="22"/>
+      <c r="T578" s="22"/>
+      <c r="U578" s="22"/>
+      <c r="V578" s="22"/>
+      <c r="W578" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="X578" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y578" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z578" s="22">
+        <v>2552233600</v>
+      </c>
+      <c r="AH578" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI578" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL578" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM578" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A579" s="5">
+        <v>578</v>
+      </c>
+      <c r="B579" s="22">
+        <v>10495</v>
+      </c>
+      <c r="C579" s="22"/>
+      <c r="D579" s="22"/>
+      <c r="E579" s="22"/>
+      <c r="F579" s="22">
+        <v>1</v>
+      </c>
+      <c r="G579" s="22" t="s">
+        <v>2169</v>
+      </c>
+      <c r="H579" s="22"/>
+      <c r="I579" s="22" t="s">
+        <v>2170</v>
+      </c>
+      <c r="J579" s="22"/>
+      <c r="K579" s="22"/>
+      <c r="L579" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M579" s="22">
+        <v>0</v>
+      </c>
+      <c r="N579" s="22">
+        <v>0</v>
+      </c>
+      <c r="O579" s="22" t="s">
+        <v>959</v>
+      </c>
+      <c r="P579" s="22">
+        <v>229800</v>
+      </c>
+      <c r="Q579" s="22" t="s">
+        <v>2171</v>
+      </c>
+      <c r="R579" s="67" t="s">
+        <v>2172</v>
+      </c>
+      <c r="S579" s="22"/>
+      <c r="T579" s="22"/>
+      <c r="U579" s="22"/>
+      <c r="V579" s="22"/>
+      <c r="W579" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="X579" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y579" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z579" s="22">
+        <v>2552233600</v>
+      </c>
+      <c r="AH579" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI579" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL579" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM579" s="5">
         <v>1</v>
       </c>
     </row>
